--- a/results/Atari/Beamrider/T6/Averages_DQN.xlsx
+++ b/results/Atari/Beamrider/T6/Averages_DQN.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAA_Projecten\Q-Learning\results\Atari\Beamrider\T6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D24378FA-D9A7-4A99-8DEF-FDD63876689C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0D570B-43D6-4969-8C3A-8ECCEF2DACCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Averages_DQN" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Average Q</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -604,13 +612,34 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.9496346740441227E-2"/>
+          <c:y val="5.9225548902195613E-2"/>
+          <c:w val="0.96543785911896141"/>
+          <c:h val="0.83561839441602659"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Averages_DQN!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Q</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -640,7 +669,7 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Averages_DQN!$A$1:$A$1305</c:f>
+              <c:f>Averages_DQN!$A$2:$A$1306</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1305"/>
@@ -4608,7 +4637,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4635,6 +4664,7 @@
         <c:axId val="588671344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4666,7 +4696,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4693,6 +4723,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5292,14 +5353,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5623,6537 +5684,6542 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1305"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A1306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD39" sqref="AD39"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>2.0410984000000001</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>18.177647</v>
+        <v>2.0410984000000001</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>26.052681</v>
+        <v>18.177647</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>21.815640999999999</v>
+        <v>26.052681</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>16.977884</v>
+        <v>21.815640999999999</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>16.363142</v>
+        <v>16.977884</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>13.804219</v>
+        <v>16.363142</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>13.078647</v>
+        <v>13.804219</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>12.565788</v>
+        <v>13.078647</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10.76394</v>
+        <v>12.565788</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9.7058959999999992</v>
+        <v>10.76394</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9.6709794999999996</v>
+        <v>9.7058959999999992</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>8.3868080000000003</v>
+        <v>9.6709794999999996</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>8.4788189999999997</v>
+        <v>8.3868080000000003</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>7.8658466000000002</v>
+        <v>8.4788189999999997</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>7.4881377000000002</v>
+        <v>7.8658466000000002</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>6.7002800000000002</v>
+        <v>7.4881377000000002</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>6.872465</v>
+        <v>6.7002800000000002</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>7.1122620000000003</v>
+        <v>6.872465</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>7.2357763999999998</v>
+        <v>7.1122620000000003</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>7.2702119999999999</v>
+        <v>7.2357763999999998</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>7.2345056999999997</v>
+        <v>7.2702119999999999</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>6.232259</v>
+        <v>7.2345056999999997</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>5.9472630000000004</v>
+        <v>6.232259</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>6.0257335000000003</v>
+        <v>5.9472630000000004</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>5.7460719999999998</v>
+        <v>6.0257335000000003</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>5.9457417000000001</v>
+        <v>5.7460719999999998</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>5.3314149999999998</v>
+        <v>5.9457417000000001</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>5.7582592999999997</v>
+        <v>5.3314149999999998</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>5.1074929999999998</v>
+        <v>5.7582592999999997</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>4.78484</v>
+        <v>5.1074929999999998</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>5.030214</v>
+        <v>4.78484</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>4.7615914000000004</v>
+        <v>5.030214</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>5.3617679999999996</v>
+        <v>4.7615914000000004</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>4.8919085999999998</v>
+        <v>5.3617679999999996</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>4.5725354999999999</v>
+        <v>4.8919085999999998</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>4.8000939999999996</v>
+        <v>4.5725354999999999</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>4.2472799999999999</v>
+        <v>4.8000939999999996</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>4.3095610000000004</v>
+        <v>4.2472799999999999</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>3.9134207000000001</v>
+        <v>4.3095610000000004</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>3.9788019999999999</v>
+        <v>3.9134207000000001</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>4.1217116999999996</v>
+        <v>3.9788019999999999</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>4.5348424999999999</v>
+        <v>4.1217116999999996</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>4.0391674000000002</v>
+        <v>4.5348424999999999</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>4.4472820000000004</v>
+        <v>4.0391674000000002</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>3.8008807</v>
+        <v>4.4472820000000004</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>3.7943878</v>
+        <v>3.8008807</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>3.4928143</v>
+        <v>3.7943878</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>3.5118391999999998</v>
+        <v>3.4928143</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>4.1498759999999999</v>
+        <v>3.5118391999999998</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>4.497808</v>
+        <v>4.1498759999999999</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>3.9004895999999998</v>
+        <v>4.497808</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>3.9798021000000001</v>
+        <v>3.9004895999999998</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>3.6170270000000002</v>
+        <v>3.9798021000000001</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>3.421551</v>
+        <v>3.6170270000000002</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>3.9046091999999999</v>
+        <v>3.421551</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>3.9166696000000001</v>
+        <v>3.9046091999999999</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>3.5068047</v>
+        <v>3.9166696000000001</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>3.1853964000000001</v>
+        <v>3.5068047</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>3.0653138000000002</v>
+        <v>3.1853964000000001</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>3.2615843</v>
+        <v>3.0653138000000002</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>2.7924229999999999</v>
+        <v>3.2615843</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>2.6145350000000001</v>
+        <v>2.7924229999999999</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>2.5691206000000002</v>
+        <v>2.6145350000000001</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>2.9186264999999998</v>
+        <v>2.5691206000000002</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>2.6437287</v>
+        <v>2.9186264999999998</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>2.6193666000000002</v>
+        <v>2.6437287</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>2.8233869999999999</v>
+        <v>2.6193666000000002</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>2.5250816</v>
+        <v>2.8233869999999999</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>2.6778430000000002</v>
+        <v>2.5250816</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>2.7749069999999998</v>
+        <v>2.6778430000000002</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>2.9673433</v>
+        <v>2.7749069999999998</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>2.8451024999999999</v>
+        <v>2.9673433</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>2.9625417999999999</v>
+        <v>2.8451024999999999</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>2.5082042000000002</v>
+        <v>2.9625417999999999</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>2.3646902999999999</v>
+        <v>2.5082042000000002</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>2.5852678</v>
+        <v>2.3646902999999999</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>2.7539658999999999</v>
+        <v>2.5852678</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>2.6832544999999999</v>
+        <v>2.7539658999999999</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>2.5432950999999999</v>
+        <v>2.6832544999999999</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>2.2012366999999999</v>
+        <v>2.5432950999999999</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>2.3205127999999999</v>
+        <v>2.2012366999999999</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>2.1672387</v>
+        <v>2.3205127999999999</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>2.3067410000000002</v>
+        <v>2.1672387</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>2.4184424999999998</v>
+        <v>2.3067410000000002</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>2.1508417</v>
+        <v>2.4184424999999998</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>2.0571668000000001</v>
+        <v>2.1508417</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>2.1136545999999998</v>
+        <v>2.0571668000000001</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>2.0579925000000001</v>
+        <v>2.1136545999999998</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>2.3058443</v>
+        <v>2.0579925000000001</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>2.3851442</v>
+        <v>2.3058443</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>2.1902938000000001</v>
+        <v>2.3851442</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>2.0792763000000001</v>
+        <v>2.1902938000000001</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>2.2172502999999999</v>
+        <v>2.0792763000000001</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1.9246129000000001</v>
+        <v>2.2172502999999999</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1.892353</v>
+        <v>1.9246129000000001</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>2.5070673999999999</v>
+        <v>1.892353</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>2.4984548000000002</v>
+        <v>2.5070673999999999</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>2.6269871999999999</v>
+        <v>2.4984548000000002</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>2.5178452</v>
+        <v>2.6269871999999999</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>2.3337338000000001</v>
+        <v>2.5178452</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>2.7142780000000002</v>
+        <v>2.3337338000000001</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>2.1828249</v>
+        <v>2.7142780000000002</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>2.0342772</v>
+        <v>2.1828249</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>2.0222384999999998</v>
+        <v>2.0342772</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1.9109646</v>
+        <v>2.0222384999999998</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>2.0587354000000002</v>
+        <v>1.9109646</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>2.0099551999999998</v>
+        <v>2.0587354000000002</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1.9208555</v>
+        <v>2.0099551999999998</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1.7000762</v>
+        <v>1.9208555</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1.9100124999999999</v>
+        <v>1.7000762</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>2.0921018</v>
+        <v>1.9100124999999999</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1.8626175</v>
+        <v>2.0921018</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1.7549287</v>
+        <v>1.8626175</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1.6530168000000001</v>
+        <v>1.7549287</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1.9209001000000001</v>
+        <v>1.6530168000000001</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1.8174307000000001</v>
+        <v>1.9209001000000001</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1.5576000999999999</v>
+        <v>1.8174307000000001</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1.6641545</v>
+        <v>1.5576000999999999</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1.8830846999999999</v>
+        <v>1.6641545</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1.8071208999999999</v>
+        <v>1.8830846999999999</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1.9520154000000001</v>
+        <v>1.8071208999999999</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1.7633924000000001</v>
+        <v>1.9520154000000001</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1.7202443000000001</v>
+        <v>1.7633924000000001</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1.7776554</v>
+        <v>1.7202443000000001</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1.7344644</v>
+        <v>1.7776554</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1.7844042</v>
+        <v>1.7344644</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1.9251967999999999</v>
+        <v>1.7844042</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1.8260346999999999</v>
+        <v>1.9251967999999999</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1.5593868</v>
+        <v>1.8260346999999999</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1.8145164</v>
+        <v>1.5593868</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1.7285808</v>
+        <v>1.8145164</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>1.829653</v>
+        <v>1.7285808</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>1.7138761</v>
+        <v>1.829653</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>1.8324012999999999</v>
+        <v>1.7138761</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1.8225098</v>
+        <v>1.8324012999999999</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1.6246556999999999</v>
+        <v>1.8225098</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1.9375713999999999</v>
+        <v>1.6246556999999999</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>2.210391</v>
+        <v>1.9375713999999999</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>2.1885059999999998</v>
+        <v>2.210391</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>2.5152912000000001</v>
+        <v>2.1885059999999998</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>2.2939908999999998</v>
+        <v>2.5152912000000001</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>2.0561688</v>
+        <v>2.2939908999999998</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>2.0149664999999999</v>
+        <v>2.0561688</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>2.1085484000000001</v>
+        <v>2.0149664999999999</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>2.0643106000000002</v>
+        <v>2.1085484000000001</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1.8838387999999999</v>
+        <v>2.0643106000000002</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1.836616</v>
+        <v>1.8838387999999999</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1.7112483000000001</v>
+        <v>1.836616</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1.6470464</v>
+        <v>1.7112483000000001</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1.6875746</v>
+        <v>1.6470464</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1.7190216</v>
+        <v>1.6875746</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1.6974203999999999</v>
+        <v>1.7190216</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1.6216254999999999</v>
+        <v>1.6974203999999999</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1.7754463</v>
+        <v>1.6216254999999999</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1.5928229</v>
+        <v>1.7754463</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1.5292535</v>
+        <v>1.5928229</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1.4355305</v>
+        <v>1.5292535</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1.5567342</v>
+        <v>1.4355305</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1.5793045000000001</v>
+        <v>1.5567342</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>1.4451890000000001</v>
+        <v>1.5793045000000001</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>1.6558101999999999</v>
+        <v>1.4451890000000001</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>1.5173703000000001</v>
+        <v>1.6558101999999999</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>1.5686834000000001</v>
+        <v>1.5173703000000001</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>1.6256527999999999</v>
+        <v>1.5686834000000001</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>1.6979968999999999</v>
+        <v>1.6256527999999999</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>1.9788714999999999</v>
+        <v>1.6979968999999999</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>1.8453993</v>
+        <v>1.9788714999999999</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>1.5410773</v>
+        <v>1.8453993</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>1.7842463</v>
+        <v>1.5410773</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>1.8554466000000001</v>
+        <v>1.7842463</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>1.7087802999999999</v>
+        <v>1.8554466000000001</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>1.6816021000000001</v>
+        <v>1.7087802999999999</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>1.709247</v>
+        <v>1.6816021000000001</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>1.7648425999999999</v>
+        <v>1.709247</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>1.585302</v>
+        <v>1.7648425999999999</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>1.5400959000000001</v>
+        <v>1.585302</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>1.7453244999999999</v>
+        <v>1.5400959000000001</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>1.4719992</v>
+        <v>1.7453244999999999</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>1.7659165999999999</v>
+        <v>1.4719992</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>1.5862114</v>
+        <v>1.7659165999999999</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>1.7873017</v>
+        <v>1.5862114</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>1.6479397</v>
+        <v>1.7873017</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>1.4532522999999999</v>
+        <v>1.6479397</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>1.3630717999999999</v>
+        <v>1.4532522999999999</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>1.6352887</v>
+        <v>1.3630717999999999</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>1.5393254000000001</v>
+        <v>1.6352887</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>1.401132</v>
+        <v>1.5393254000000001</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>1.3314303999999999</v>
+        <v>1.401132</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>1.570065</v>
+        <v>1.3314303999999999</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>1.4112651000000001</v>
+        <v>1.570065</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>1.471703</v>
+        <v>1.4112651000000001</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>1.8947955000000001</v>
+        <v>1.471703</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>2.0791721000000001</v>
+        <v>1.8947955000000001</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>1.7462726</v>
+        <v>2.0791721000000001</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>1.6576047</v>
+        <v>1.7462726</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>1.5207204999999999</v>
+        <v>1.6576047</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>1.5808968999999999</v>
+        <v>1.5207204999999999</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>1.4054606999999999</v>
+        <v>1.5808968999999999</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>1.4452720999999999</v>
+        <v>1.4054606999999999</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>1.6892232</v>
+        <v>1.4452720999999999</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>1.5174451</v>
+        <v>1.6892232</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>1.8634564</v>
+        <v>1.5174451</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>1.6620195</v>
+        <v>1.8634564</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>1.3789525</v>
+        <v>1.6620195</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>1.9161484</v>
+        <v>1.3789525</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>1.5119387</v>
+        <v>1.9161484</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>1.7898864000000001</v>
+        <v>1.5119387</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>1.4699005999999999</v>
+        <v>1.7898864000000001</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>1.6837648999999999</v>
+        <v>1.4699005999999999</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>1.5437002</v>
+        <v>1.6837648999999999</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>1.7290714</v>
+        <v>1.5437002</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>1.5620130000000001</v>
+        <v>1.7290714</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>1.5455668</v>
+        <v>1.5620130000000001</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>1.3704202999999999</v>
+        <v>1.5455668</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>1.633059</v>
+        <v>1.3704202999999999</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>1.5136628000000001</v>
+        <v>1.633059</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>1.2875216</v>
+        <v>1.5136628000000001</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>1.5190891</v>
+        <v>1.2875216</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>1.5742525000000001</v>
+        <v>1.5190891</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>1.4996678000000001</v>
+        <v>1.5742525000000001</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>1.2228786</v>
+        <v>1.4996678000000001</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>1.4911506999999999</v>
+        <v>1.2228786</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>1.3070941</v>
+        <v>1.4911506999999999</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>1.5607553000000001</v>
+        <v>1.3070941</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>1.4503766</v>
+        <v>1.5607553000000001</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>1.3006979999999999</v>
+        <v>1.4503766</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>1.5429733000000001</v>
+        <v>1.3006979999999999</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>1.3057508</v>
+        <v>1.5429733000000001</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>1.6696873000000001</v>
+        <v>1.3057508</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>1.6293682</v>
+        <v>1.6696873000000001</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>1.3960652</v>
+        <v>1.6293682</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>1.6320138</v>
+        <v>1.3960652</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>1.4923862999999999</v>
+        <v>1.6320138</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>1.4043785</v>
+        <v>1.4923862999999999</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>1.5789199</v>
+        <v>1.4043785</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>1.5395565</v>
+        <v>1.5789199</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>1.4864975</v>
+        <v>1.5395565</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>1.5121613</v>
+        <v>1.4864975</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>1.6910455</v>
+        <v>1.5121613</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>1.4746391999999999</v>
+        <v>1.6910455</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>1.4631415999999999</v>
+        <v>1.4746391999999999</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>1.5749348000000001</v>
+        <v>1.4631415999999999</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>1.4840287000000001</v>
+        <v>1.5749348000000001</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>1.3754495</v>
+        <v>1.4840287000000001</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>1.1543247000000001</v>
+        <v>1.3754495</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>1.3194760000000001</v>
+        <v>1.1543247000000001</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>1.5307831999999999</v>
+        <v>1.3194760000000001</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>1.4206213999999999</v>
+        <v>1.5307831999999999</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>1.5479282999999999</v>
+        <v>1.4206213999999999</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>1.5138236</v>
+        <v>1.5479282999999999</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>1.1925676999999999</v>
+        <v>1.5138236</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>1.2500656000000001</v>
+        <v>1.1925676999999999</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>1.5608428000000001</v>
+        <v>1.2500656000000001</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>1.6831182</v>
+        <v>1.5608428000000001</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>1.5414208</v>
+        <v>1.6831182</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>1.2136648000000001</v>
+        <v>1.5414208</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>1.6112721999999999</v>
+        <v>1.2136648000000001</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>1.4883716</v>
+        <v>1.6112721999999999</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>1.1971510000000001</v>
+        <v>1.4883716</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>1.3945050999999999</v>
+        <v>1.1971510000000001</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>1.1181354999999999</v>
+        <v>1.3945050999999999</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>1.6645333</v>
+        <v>1.1181354999999999</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>1.5971017999999999</v>
+        <v>1.6645333</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>1.3431066</v>
+        <v>1.5971017999999999</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>1.2723693</v>
+        <v>1.3431066</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>1.3887265</v>
+        <v>1.2723693</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>1.6327239</v>
+        <v>1.3887265</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>1.2475343000000001</v>
+        <v>1.6327239</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>1.4951789</v>
+        <v>1.2475343000000001</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>1.4774978999999999</v>
+        <v>1.4951789</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>1.4631695</v>
+        <v>1.4774978999999999</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>1.196734</v>
+        <v>1.4631695</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>1.5466869000000001</v>
+        <v>1.196734</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>1.3878269999999999</v>
+        <v>1.5466869000000001</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>1.1597459000000001</v>
+        <v>1.3878269999999999</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>1.0795602</v>
+        <v>1.1597459000000001</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>1.3415288999999999</v>
+        <v>1.0795602</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>1.1030972999999999</v>
+        <v>1.3415288999999999</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>1.5379130000000001</v>
+        <v>1.1030972999999999</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>1.1372263</v>
+        <v>1.5379130000000001</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>1.3044399</v>
+        <v>1.1372263</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>1.2277464</v>
+        <v>1.3044399</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>1.1514203999999999</v>
+        <v>1.2277464</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>1.0809067000000001</v>
+        <v>1.1514203999999999</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>0.99932240000000006</v>
+        <v>1.0809067000000001</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>1.0927572000000001</v>
+        <v>0.99932240000000006</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>1.4777199000000001</v>
+        <v>1.0927572000000001</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>1.2917778</v>
+        <v>1.4777199000000001</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>1.1487372</v>
+        <v>1.2917778</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>1.1369848</v>
+        <v>1.1487372</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>1.1375675999999999</v>
+        <v>1.1369848</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>1.1377794000000001</v>
+        <v>1.1375675999999999</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>1.2597722</v>
+        <v>1.1377794000000001</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>1.1045178</v>
+        <v>1.2597722</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>1.1574403</v>
+        <v>1.1045178</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>1.0929120999999999</v>
+        <v>1.1574403</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>1.4910258000000001</v>
+        <v>1.0929120999999999</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>1.3553933</v>
+        <v>1.4910258000000001</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>1.4043114999999999</v>
+        <v>1.3553933</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>1.2425549</v>
+        <v>1.4043114999999999</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>1.3931252999999999</v>
+        <v>1.2425549</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>1.3033915</v>
+        <v>1.3931252999999999</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>1.4099535000000001</v>
+        <v>1.3033915</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>1.34259</v>
+        <v>1.4099535000000001</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>1.4143353999999999</v>
+        <v>1.34259</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>1.1104894999999999</v>
+        <v>1.4143353999999999</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>1.5672078</v>
+        <v>1.1104894999999999</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>1.3920606</v>
+        <v>1.5672078</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>1.3639612999999999</v>
+        <v>1.3920606</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>1.3703915</v>
+        <v>1.3639612999999999</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>1.3173594</v>
+        <v>1.3703915</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>1.4279984999999999</v>
+        <v>1.3173594</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>1.4058679000000001</v>
+        <v>1.4279984999999999</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>1.1485394</v>
+        <v>1.4058679000000001</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>1.6830906000000001</v>
+        <v>1.1485394</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>1.4994873</v>
+        <v>1.6830906000000001</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>1.0813919000000001</v>
+        <v>1.4994873</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>1.2195096999999999</v>
+        <v>1.0813919000000001</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>1.3445345</v>
+        <v>1.2195096999999999</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>1.4638878</v>
+        <v>1.3445345</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>1.5885701000000001</v>
+        <v>1.4638878</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>1.3120259000000001</v>
+        <v>1.5885701000000001</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>1.1188933000000001</v>
+        <v>1.3120259000000001</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>1.3241415000000001</v>
+        <v>1.1188933000000001</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>1.3048131000000001</v>
+        <v>1.3241415000000001</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>1.0212589999999999</v>
+        <v>1.3048131000000001</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>1.3004218000000001</v>
+        <v>1.0212589999999999</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>1.1004083</v>
+        <v>1.3004218000000001</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>1.0859896</v>
+        <v>1.1004083</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>1.5888555</v>
+        <v>1.0859896</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>1.3093086</v>
+        <v>1.5888555</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>1.0316162</v>
+        <v>1.3093086</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>1.4348452</v>
+        <v>1.0316162</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>1.6218827</v>
+        <v>1.4348452</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>1.4453312</v>
+        <v>1.6218827</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>1.2430437999999999</v>
+        <v>1.4453312</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>1.4567878000000001</v>
+        <v>1.2430437999999999</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>1.4023808</v>
+        <v>1.4567878000000001</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>1.3537471999999999</v>
+        <v>1.4023808</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>1.2029430000000001</v>
+        <v>1.3537471999999999</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>1.5467609</v>
+        <v>1.2029430000000001</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>1.3993992</v>
+        <v>1.5467609</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>1.0792876</v>
+        <v>1.3993992</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>1.4560477000000001</v>
+        <v>1.0792876</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>1.6970794</v>
+        <v>1.4560477000000001</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>1.5558615</v>
+        <v>1.6970794</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>1.5463716000000001</v>
+        <v>1.5558615</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>1.4570913000000001</v>
+        <v>1.5463716000000001</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>1.4113964999999999</v>
+        <v>1.4570913000000001</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>1.1762208999999999</v>
+        <v>1.4113964999999999</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>1.3686807999999999</v>
+        <v>1.1762208999999999</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>1.1818394999999999</v>
+        <v>1.3686807999999999</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>1.3202007</v>
+        <v>1.1818394999999999</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>1.2558813</v>
+        <v>1.3202007</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>1.1544665000000001</v>
+        <v>1.2558813</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>1.2736562</v>
+        <v>1.1544665000000001</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>1.0897435</v>
+        <v>1.2736562</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>0.94393839999999996</v>
+        <v>1.0897435</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>1.2769314</v>
+        <v>0.94393839999999996</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>1.1505046999999999</v>
+        <v>1.2769314</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>1.0265013999999999</v>
+        <v>1.1505046999999999</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>1.4254464</v>
+        <v>1.0265013999999999</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>1.3664485</v>
+        <v>1.4254464</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>0.9977703</v>
+        <v>1.3664485</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>1.4749228000000001</v>
+        <v>0.9977703</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>1.0823221999999999</v>
+        <v>1.4749228000000001</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>1.1758134</v>
+        <v>1.0823221999999999</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>0.85502359999999999</v>
+        <v>1.1758134</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>1.2012415999999999</v>
+        <v>0.85502359999999999</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>1.1274234000000001</v>
+        <v>1.2012415999999999</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>1.2288699000000001</v>
+        <v>1.1274234000000001</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>0.85483710000000002</v>
+        <v>1.2288699000000001</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>1.2318705000000001</v>
+        <v>0.85483710000000002</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>1.1329807000000001</v>
+        <v>1.2318705000000001</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>1.0139332000000001</v>
+        <v>1.1329807000000001</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>1.0187873999999999</v>
+        <v>1.0139332000000001</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>1.2159150000000001</v>
+        <v>1.0187873999999999</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>1.8090748999999999</v>
+        <v>1.2159150000000001</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>1.4143578999999999</v>
+        <v>1.8090748999999999</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>0.84892153999999997</v>
+        <v>1.4143578999999999</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>0.99865440000000005</v>
+        <v>0.84892153999999997</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>1.5418681000000001</v>
+        <v>0.99865440000000005</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>1.6517706999999999</v>
+        <v>1.5418681000000001</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>1.3953637999999999</v>
+        <v>1.6517706999999999</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>1.2830222</v>
+        <v>1.3953637999999999</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>1.0975516999999999</v>
+        <v>1.2830222</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>1.3533447999999999</v>
+        <v>1.0975516999999999</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>1.0124991999999999</v>
+        <v>1.3533447999999999</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>1.1840998</v>
+        <v>1.0124991999999999</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>0.96378900000000001</v>
+        <v>1.1840998</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>1.1490359999999999</v>
+        <v>0.96378900000000001</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>1.0595486000000001</v>
+        <v>1.1490359999999999</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>0.50635790000000003</v>
+        <v>1.0595486000000001</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>0.79747100000000004</v>
+        <v>0.50635790000000003</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>1.2148432</v>
+        <v>0.79747100000000004</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>1.3662000999999999</v>
+        <v>1.2148432</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>1.2255341</v>
+        <v>1.3662000999999999</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>1.1944994</v>
+        <v>1.2255341</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>0.92004209999999997</v>
+        <v>1.1944994</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>1.2791739</v>
+        <v>0.92004209999999997</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>1.0034713</v>
+        <v>1.2791739</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>1.4196887</v>
+        <v>1.0034713</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>1.2167116</v>
+        <v>1.4196887</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>1.1855530999999999</v>
+        <v>1.2167116</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>0.83592546000000001</v>
+        <v>1.1855530999999999</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>0.94196190000000002</v>
+        <v>0.83592546000000001</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>0.9985735</v>
+        <v>0.94196190000000002</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>1.1124438999999999</v>
+        <v>0.9985735</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>1.3360665</v>
+        <v>1.1124438999999999</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>1.1586243000000001</v>
+        <v>1.3360665</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>0.97808859999999997</v>
+        <v>1.1586243000000001</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>0.90483177000000004</v>
+        <v>0.97808859999999997</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>1.2302567</v>
+        <v>0.90483177000000004</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>0.97390189999999999</v>
+        <v>1.2302567</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>1.1765199</v>
+        <v>0.97390189999999999</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>1.3266933000000001</v>
+        <v>1.1765199</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>1.3189565000000001</v>
+        <v>1.3266933000000001</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>1.0885518999999999</v>
+        <v>1.3189565000000001</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>1.4463203</v>
+        <v>1.0885518999999999</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>1.2174772</v>
+        <v>1.4463203</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>1.0775068999999999</v>
+        <v>1.2174772</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>1.3042545000000001</v>
+        <v>1.0775068999999999</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>1.0227894</v>
+        <v>1.3042545000000001</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>1.1363394</v>
+        <v>1.0227894</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>0.95459609999999995</v>
+        <v>1.1363394</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>1.1159555000000001</v>
+        <v>0.95459609999999995</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>1.1312690999999999</v>
+        <v>1.1159555000000001</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>1.1661817999999999</v>
+        <v>1.1312690999999999</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>1.2524115</v>
+        <v>1.1661817999999999</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>1.2019683999999999</v>
+        <v>1.2524115</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>1.0769686999999999</v>
+        <v>1.2019683999999999</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>0.98532439999999999</v>
+        <v>1.0769686999999999</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>1.2536182</v>
+        <v>0.98532439999999999</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>1.1873648000000001</v>
+        <v>1.2536182</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>1.1613937999999999</v>
+        <v>1.1873648000000001</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>1.5597354000000001</v>
+        <v>1.1613937999999999</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>1.1991296</v>
+        <v>1.5597354000000001</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>1.2460146999999999</v>
+        <v>1.1991296</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>1.1369860000000001</v>
+        <v>1.2460146999999999</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>1.0367078999999999</v>
+        <v>1.1369860000000001</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>1.1542095999999999</v>
+        <v>1.0367078999999999</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>0.80180180000000001</v>
+        <v>1.1542095999999999</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>1.2420659000000001</v>
+        <v>0.80180180000000001</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>1.2183938999999999</v>
+        <v>1.2420659000000001</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>1.1463555999999999</v>
+        <v>1.2183938999999999</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>1.1082141000000001</v>
+        <v>1.1463555999999999</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>1.0163633000000001</v>
+        <v>1.1082141000000001</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>1.3689153999999999</v>
+        <v>1.0163633000000001</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>1.0315264</v>
+        <v>1.3689153999999999</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>1.1064489</v>
+        <v>1.0315264</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>0.93235829999999997</v>
+        <v>1.1064489</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>1.3160069000000001</v>
+        <v>0.93235829999999997</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>0.81563079999999999</v>
+        <v>1.3160069000000001</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>1.0684184000000001</v>
+        <v>0.81563079999999999</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>1.4480489999999999</v>
+        <v>1.0684184000000001</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>0.9661824</v>
+        <v>1.4480489999999999</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>1.2584635</v>
+        <v>0.9661824</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>1.0235392000000001</v>
+        <v>1.2584635</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>1.3695459000000001</v>
+        <v>1.0235392000000001</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>1.0829146999999999</v>
+        <v>1.3695459000000001</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>1.4559397000000001</v>
+        <v>1.0829146999999999</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>1.3494227000000001</v>
+        <v>1.4559397000000001</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>1.3173462</v>
+        <v>1.3494227000000001</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>1.3018045</v>
+        <v>1.3173462</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>1.2080803</v>
+        <v>1.3018045</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>1.3087046</v>
+        <v>1.2080803</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>1.2636908</v>
+        <v>1.3087046</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>1.3054234</v>
+        <v>1.2636908</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>1.2292163</v>
+        <v>1.3054234</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>1.1369918999999999</v>
+        <v>1.2292163</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>1.0558202999999999</v>
+        <v>1.1369918999999999</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>0.69817929999999995</v>
+        <v>1.0558202999999999</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>1.0710451999999999</v>
+        <v>0.69817929999999995</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>1.0453650999999999</v>
+        <v>1.0710451999999999</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>1.0235460999999999</v>
+        <v>1.0453650999999999</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>1.1203923</v>
+        <v>1.0235460999999999</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>1.1653095</v>
+        <v>1.1203923</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>1.4120746</v>
+        <v>1.1653095</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>1.1737514</v>
+        <v>1.4120746</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>0.85224659999999997</v>
+        <v>1.1737514</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>0.89710690000000004</v>
+        <v>0.85224659999999997</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>1.2611086</v>
+        <v>0.89710690000000004</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>1.167891</v>
+        <v>1.2611086</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>1.1891598000000001</v>
+        <v>1.167891</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>1.0968690000000001</v>
+        <v>1.1891598000000001</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>1.1291492000000001</v>
+        <v>1.0968690000000001</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>1.5515684999999999</v>
+        <v>1.1291492000000001</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>1.1630931</v>
+        <v>1.5515684999999999</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>1.1277652</v>
+        <v>1.1630931</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>1.4217266</v>
+        <v>1.1277652</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>1.024524</v>
+        <v>1.4217266</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>1.1209537000000001</v>
+        <v>1.024524</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>1.1728889</v>
+        <v>1.1209537000000001</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>1.4879912</v>
+        <v>1.1728889</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>1.4773894999999999</v>
+        <v>1.4879912</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>0.39649075</v>
+        <v>1.4773894999999999</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>1.342039</v>
+        <v>0.39649075</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>1.5644032000000001</v>
+        <v>1.342039</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>1.5356467</v>
+        <v>1.5644032000000001</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>1.4695894</v>
+        <v>1.5356467</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>1.1256832000000001</v>
+        <v>1.4695894</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>1.3803030999999999</v>
+        <v>1.1256832000000001</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>1.4805858999999999</v>
+        <v>1.3803030999999999</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>1.6558813999999999</v>
+        <v>1.4805858999999999</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>1.4244570000000001</v>
+        <v>1.6558813999999999</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>1.4019614</v>
+        <v>1.4244570000000001</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>1.3730639</v>
+        <v>1.4019614</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>1.2439556000000001</v>
+        <v>1.3730639</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>1.3517524000000001</v>
+        <v>1.2439556000000001</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>0.79236512999999997</v>
+        <v>1.3517524000000001</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>1.7129805</v>
+        <v>0.79236512999999997</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>1.4979243</v>
+        <v>1.7129805</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>1.3459498999999999</v>
+        <v>1.4979243</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>1.4857061</v>
+        <v>1.3459498999999999</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>1.2406242000000001</v>
+        <v>1.4857061</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>1.4241041999999999</v>
+        <v>1.2406242000000001</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>1.511036</v>
+        <v>1.4241041999999999</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>1.3882426000000001</v>
+        <v>1.511036</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>1.4393541000000001</v>
+        <v>1.3882426000000001</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>1.6917636</v>
+        <v>1.4393541000000001</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>1.7082461</v>
+        <v>1.6917636</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>1.0387648</v>
+        <v>1.7082461</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>1.681624</v>
+        <v>1.0387648</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>1.2158898</v>
+        <v>1.681624</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>1.4754487999999999</v>
+        <v>1.2158898</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>1.2197827999999999</v>
+        <v>1.4754487999999999</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>1.7484150000000001</v>
+        <v>1.2197827999999999</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>1.8582962999999999</v>
+        <v>1.7484150000000001</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>1.7969408</v>
+        <v>1.8582962999999999</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>1.6382961</v>
+        <v>1.7969408</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>1.1898458999999999</v>
+        <v>1.6382961</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>1.8021327</v>
+        <v>1.1898458999999999</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>1.4819572000000001</v>
+        <v>1.8021327</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>1.5425647</v>
+        <v>1.4819572000000001</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>1.7045969999999999</v>
+        <v>1.5425647</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>1.340001</v>
+        <v>1.7045969999999999</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>0.89868844000000003</v>
+        <v>1.340001</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>1.5830065</v>
+        <v>0.89868844000000003</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>1.4609207</v>
+        <v>1.5830065</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>1.8302722</v>
+        <v>1.4609207</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>1.7659351999999999</v>
+        <v>1.8302722</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>1.5497985000000001</v>
+        <v>1.7659351999999999</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>1.3920376999999999</v>
+        <v>1.5497985000000001</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>1.3627613000000001</v>
+        <v>1.3920376999999999</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>1.0005782999999999</v>
+        <v>1.3627613000000001</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>0.89675384999999996</v>
+        <v>1.0005782999999999</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548">
-        <v>0.74198169999999997</v>
+        <v>0.89675384999999996</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>1.4728403000000001</v>
+        <v>0.74198169999999997</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>1.0058199000000001</v>
+        <v>1.4728403000000001</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>1.2835293999999999</v>
+        <v>1.0058199000000001</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>1.1205665</v>
+        <v>1.2835293999999999</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>1.2883264000000001</v>
+        <v>1.1205665</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>0.58249079999999998</v>
+        <v>1.2883264000000001</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>1.4298485999999999</v>
+        <v>0.58249079999999998</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>1.2788682</v>
+        <v>1.4298485999999999</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>0.93708170000000002</v>
+        <v>1.2788682</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>1.2012499999999999</v>
+        <v>0.93708170000000002</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>1.3364309000000001</v>
+        <v>1.2012499999999999</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>0.97649163000000005</v>
+        <v>1.3364309000000001</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>1.1759058</v>
+        <v>0.97649163000000005</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>1.7263472</v>
+        <v>1.1759058</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>0.88374900000000001</v>
+        <v>1.7263472</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>0.9045164</v>
+        <v>0.88374900000000001</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>1.5581275999999999</v>
+        <v>0.9045164</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>0.67174034999999999</v>
+        <v>1.5581275999999999</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>0.39089686000000001</v>
+        <v>0.67174034999999999</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>0.95068629999999998</v>
+        <v>0.39089686000000001</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>1.6621900999999999</v>
+        <v>0.95068629999999998</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>1.0196722</v>
+        <v>1.6621900999999999</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>1.3916812000000001</v>
+        <v>1.0196722</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572">
-        <v>1.3369114</v>
+        <v>1.3916812000000001</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573">
-        <v>0.47676020000000002</v>
+        <v>1.3369114</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574">
-        <v>0.91675709999999999</v>
+        <v>0.47676020000000002</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575">
-        <v>1.2351364</v>
+        <v>0.91675709999999999</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576">
-        <v>1.3529308</v>
+        <v>1.2351364</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577">
-        <v>0.74767004999999997</v>
+        <v>1.3529308</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578">
-        <v>1.8996009</v>
+        <v>0.74767004999999997</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579">
-        <v>1.6587693999999999</v>
+        <v>1.8996009</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580">
-        <v>1.57019</v>
+        <v>1.6587693999999999</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>0.84559189999999995</v>
+        <v>1.57019</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>1.7569840000000001</v>
+        <v>0.84559189999999995</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>1.3050352000000001</v>
+        <v>1.7569840000000001</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>1.5260374999999999</v>
+        <v>1.3050352000000001</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>1.1058840000000001</v>
+        <v>1.5260374999999999</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>0.96119330000000003</v>
+        <v>1.1058840000000001</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>1.4931344</v>
+        <v>0.96119330000000003</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>1.6868000000000001</v>
+        <v>1.4931344</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>1.4811211</v>
+        <v>1.6868000000000001</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>1.2474167</v>
+        <v>1.4811211</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>1.1805650999999999</v>
+        <v>1.2474167</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>0.85594106000000003</v>
+        <v>1.1805650999999999</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>0.85766255999999996</v>
+        <v>0.85594106000000003</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>1.2709473</v>
+        <v>0.85766255999999996</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>0.67829890000000004</v>
+        <v>1.2709473</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596">
-        <v>1.5236472999999999</v>
+        <v>0.67829890000000004</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597">
-        <v>1.2699969</v>
+        <v>1.5236472999999999</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598">
-        <v>1.201198</v>
+        <v>1.2699969</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599">
-        <v>0.79997470000000004</v>
+        <v>1.201198</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600">
-        <v>1.2343249000000001</v>
+        <v>0.79997470000000004</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>1.0001419</v>
+        <v>1.2343249000000001</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602">
-        <v>1.1182243000000001</v>
+        <v>1.0001419</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603">
-        <v>0.8018111</v>
+        <v>1.1182243000000001</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604">
-        <v>1.2325945</v>
+        <v>0.8018111</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>1.1275649999999999</v>
+        <v>1.2325945</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606">
-        <v>1.0468379000000001</v>
+        <v>1.1275649999999999</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>0.44810334000000002</v>
+        <v>1.0468379000000001</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>0.96872020000000003</v>
+        <v>0.44810334000000002</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>1.3013873</v>
+        <v>0.96872020000000003</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>1.0333991</v>
+        <v>1.3013873</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>1.2665229</v>
+        <v>1.0333991</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612">
-        <v>1.2567246000000001</v>
+        <v>1.2665229</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>0.96640395999999995</v>
+        <v>1.2567246000000001</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614">
-        <v>1.0855551999999999</v>
+        <v>0.96640395999999995</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615">
-        <v>1.2104788</v>
+        <v>1.0855551999999999</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>0.40240076000000002</v>
+        <v>1.2104788</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617">
-        <v>1.1480585000000001</v>
+        <v>0.40240076000000002</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618">
-        <v>0.39338951999999999</v>
+        <v>1.1480585000000001</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619">
-        <v>1.0719373999999999</v>
+        <v>0.39338951999999999</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620">
-        <v>0.90333240000000004</v>
+        <v>1.0719373999999999</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621">
-        <v>1.3917843999999999</v>
+        <v>0.90333240000000004</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622">
-        <v>0.74249816000000002</v>
+        <v>1.3917843999999999</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623">
-        <v>1.0342572000000001</v>
+        <v>0.74249816000000002</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624">
-        <v>1.0135285999999999</v>
+        <v>1.0342572000000001</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625">
-        <v>1.2055317000000001</v>
+        <v>1.0135285999999999</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626">
-        <v>1.0791428999999999</v>
+        <v>1.2055317000000001</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627">
-        <v>0.31928566000000003</v>
+        <v>1.0791428999999999</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628">
-        <v>0.73733150000000003</v>
+        <v>0.31928566000000003</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629">
-        <v>0.94577929999999999</v>
+        <v>0.73733150000000003</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630">
-        <v>1.1645125999999999</v>
+        <v>0.94577929999999999</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631">
-        <v>1.1875271999999999</v>
+        <v>1.1645125999999999</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632">
-        <v>1.1515487</v>
+        <v>1.1875271999999999</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633">
-        <v>0.83320636000000003</v>
+        <v>1.1515487</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634">
-        <v>1.3541742999999999</v>
+        <v>0.83320636000000003</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635">
-        <v>0.29199229999999998</v>
+        <v>1.3541742999999999</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636">
-        <v>1.2853502000000001</v>
+        <v>0.29199229999999998</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637">
-        <v>0.51439409999999997</v>
+        <v>1.2853502000000001</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638">
-        <v>0.78859234</v>
+        <v>0.51439409999999997</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639">
-        <v>1.4144988000000001</v>
+        <v>0.78859234</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640">
-        <v>1.4478869999999999</v>
+        <v>1.4144988000000001</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641">
-        <v>0.88792663999999999</v>
+        <v>1.4478869999999999</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642">
-        <v>1.1719854000000001</v>
+        <v>0.88792663999999999</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643">
-        <v>0.69313590000000003</v>
+        <v>1.1719854000000001</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644">
-        <v>0.91661939999999997</v>
+        <v>0.69313590000000003</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645">
-        <v>1.3798362</v>
+        <v>0.91661939999999997</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646">
-        <v>1.1189051000000001</v>
+        <v>1.3798362</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647">
-        <v>1.0542708999999999</v>
+        <v>1.1189051000000001</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648">
-        <v>1.2026714999999999</v>
+        <v>1.0542708999999999</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649">
-        <v>1.1597632</v>
+        <v>1.2026714999999999</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650">
-        <v>0.7561928</v>
+        <v>1.1597632</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651">
-        <v>0.41516110000000001</v>
+        <v>0.7561928</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652">
-        <v>0.67786855000000001</v>
+        <v>0.41516110000000001</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653">
-        <v>0.71084696000000003</v>
+        <v>0.67786855000000001</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654">
-        <v>1.5167348</v>
+        <v>0.71084696000000003</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655">
-        <v>1.1402471999999999</v>
+        <v>1.5167348</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656">
-        <v>1.2485099</v>
+        <v>1.1402471999999999</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657">
-        <v>0.81910810000000001</v>
+        <v>1.2485099</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658">
-        <v>0.66716324999999999</v>
+        <v>0.81910810000000001</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659">
-        <v>1.3219893</v>
+        <v>0.66716324999999999</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660">
-        <v>0.72895909999999997</v>
+        <v>1.3219893</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661">
-        <v>0.94900894000000002</v>
+        <v>0.72895909999999997</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662">
-        <v>1.3369409000000001</v>
+        <v>0.94900894000000002</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663">
-        <v>1.245555</v>
+        <v>1.3369409000000001</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664">
-        <v>1.1586434000000001</v>
+        <v>1.245555</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665">
-        <v>0.86698980000000003</v>
+        <v>1.1586434000000001</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666">
-        <v>1.2121104</v>
+        <v>0.86698980000000003</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667">
-        <v>1.0855644</v>
+        <v>1.2121104</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668">
-        <v>0.42641568000000002</v>
+        <v>1.0855644</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669">
-        <v>0.62196700000000005</v>
+        <v>0.42641568000000002</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670">
-        <v>0.93382050000000005</v>
+        <v>0.62196700000000005</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671">
-        <v>0.92429629999999996</v>
+        <v>0.93382050000000005</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672">
-        <v>0.75511969999999995</v>
+        <v>0.92429629999999996</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673">
-        <v>0.95555800000000002</v>
+        <v>0.75511969999999995</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674">
-        <v>0.52844787000000004</v>
+        <v>0.95555800000000002</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675">
-        <v>0.89072600000000002</v>
+        <v>0.52844787000000004</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676">
-        <v>0.66130202999999999</v>
+        <v>0.89072600000000002</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677">
-        <v>0.7326085</v>
+        <v>0.66130202999999999</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678">
-        <v>1.1724975</v>
+        <v>0.7326085</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679">
-        <v>0.73393759999999997</v>
+        <v>1.1724975</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680">
-        <v>0.45418644000000002</v>
+        <v>0.73393759999999997</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681">
-        <v>0.36901146000000001</v>
+        <v>0.45418644000000002</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682">
-        <v>0.57104737000000005</v>
+        <v>0.36901146000000001</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683">
-        <v>1.1127138000000001</v>
+        <v>0.57104737000000005</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684">
-        <v>0.50090705999999996</v>
+        <v>1.1127138000000001</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685">
-        <v>1.2699415999999999</v>
+        <v>0.50090705999999996</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686">
-        <v>1.2165315000000001</v>
+        <v>1.2699415999999999</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687">
-        <v>0.76208615000000002</v>
+        <v>1.2165315000000001</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688">
-        <v>0.17830269000000001</v>
+        <v>0.76208615000000002</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689">
-        <v>1.1633674000000001</v>
+        <v>0.17830269000000001</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690">
-        <v>0.67489480000000002</v>
+        <v>1.1633674000000001</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691">
-        <v>1.1945649</v>
+        <v>0.67489480000000002</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692">
-        <v>1.2548805000000001</v>
+        <v>1.1945649</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693">
-        <v>1.1723176</v>
+        <v>1.2548805000000001</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694">
-        <v>0.32939153999999998</v>
+        <v>1.1723176</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695">
-        <v>0.72824496000000005</v>
+        <v>0.32939153999999998</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696">
-        <v>0.65254086</v>
+        <v>0.72824496000000005</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697">
-        <v>1.5172654000000001</v>
+        <v>0.65254086</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698">
-        <v>1.4595967999999999</v>
+        <v>1.5172654000000001</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699">
-        <v>0.68259024999999995</v>
+        <v>1.4595967999999999</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700">
-        <v>0.96202624000000003</v>
+        <v>0.68259024999999995</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701">
-        <v>1.0551349000000001</v>
+        <v>0.96202624000000003</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702">
-        <v>1.6803712</v>
+        <v>1.0551349000000001</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703">
-        <v>0.82334954000000005</v>
+        <v>1.6803712</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704">
-        <v>0.75983129999999999</v>
+        <v>0.82334954000000005</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705">
-        <v>1.0297388999999999</v>
+        <v>0.75983129999999999</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706">
-        <v>0.78641970000000005</v>
+        <v>1.0297388999999999</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707">
-        <v>1.2459959</v>
+        <v>0.78641970000000005</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708">
-        <v>1.3949849999999999</v>
+        <v>1.2459959</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709">
-        <v>1.2290319000000001</v>
+        <v>1.3949849999999999</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710">
-        <v>0.25229393999999999</v>
+        <v>1.2290319000000001</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711">
-        <v>0.99315416999999995</v>
+        <v>0.25229393999999999</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712">
-        <v>1.0924172000000001</v>
+        <v>0.99315416999999995</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713">
-        <v>0.86807924999999997</v>
+        <v>1.0924172000000001</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714">
-        <v>0.24842015000000001</v>
+        <v>0.86807924999999997</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715">
-        <v>1.6004632000000001</v>
+        <v>0.24842015000000001</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716">
-        <v>0.3680291</v>
+        <v>1.6004632000000001</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717">
-        <v>1.4413404000000001</v>
+        <v>0.3680291</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718">
-        <v>1.3743396999999999</v>
+        <v>1.4413404000000001</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719">
-        <v>1.106436</v>
+        <v>1.3743396999999999</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720">
-        <v>1.0577747</v>
+        <v>1.106436</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721">
-        <v>0.73004173999999999</v>
+        <v>1.0577747</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722">
-        <v>1.3862144999999999</v>
+        <v>0.73004173999999999</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723">
-        <v>1.2327735</v>
+        <v>1.3862144999999999</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724">
-        <v>-0.27040890000000001</v>
+        <v>1.2327735</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725">
-        <v>0.48353538000000001</v>
+        <v>-0.27040890000000001</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726">
-        <v>2.1497600000000001</v>
+        <v>0.48353538000000001</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727">
-        <v>1.9912177</v>
+        <v>2.1497600000000001</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728">
-        <v>1.457039</v>
+        <v>1.9912177</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729">
-        <v>1.3569040999999999</v>
+        <v>1.457039</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730">
-        <v>0.72332450000000004</v>
+        <v>1.3569040999999999</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731">
-        <v>0.36547851999999997</v>
+        <v>0.72332450000000004</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732">
-        <v>1.1623943999999999</v>
+        <v>0.36547851999999997</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733">
-        <v>1.7424928</v>
+        <v>1.1623943999999999</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734">
-        <v>1.3685160000000001</v>
+        <v>1.7424928</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735">
-        <v>0.95795392999999995</v>
+        <v>1.3685160000000001</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736">
-        <v>1.2498815999999999</v>
+        <v>0.95795392999999995</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737">
-        <v>1.3183343000000001</v>
+        <v>1.2498815999999999</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738">
-        <v>0.11200374</v>
+        <v>1.3183343000000001</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739">
-        <v>0.53839870000000001</v>
+        <v>0.11200374</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740">
-        <v>1.4509516</v>
+        <v>0.53839870000000001</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741">
-        <v>1.3744871999999999</v>
+        <v>1.4509516</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742">
-        <v>0.55752310000000005</v>
+        <v>1.3744871999999999</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743">
-        <v>0.39689790000000003</v>
+        <v>0.55752310000000005</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A744">
-        <v>0.55745250000000002</v>
+        <v>0.39689790000000003</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745">
-        <v>1.4323570999999999</v>
+        <v>0.55745250000000002</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A746">
-        <v>1.2030432</v>
+        <v>1.4323570999999999</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747">
-        <v>0.61128510000000003</v>
+        <v>1.2030432</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748">
-        <v>0.56213659999999999</v>
+        <v>0.61128510000000003</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749">
-        <v>1.2887772</v>
+        <v>0.56213659999999999</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750">
-        <v>1.0538589</v>
+        <v>1.2887772</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751">
-        <v>1.5377018</v>
+        <v>1.0538589</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752">
-        <v>1.5804049</v>
+        <v>1.5377018</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A753">
-        <v>2.2238506999999998</v>
+        <v>1.5804049</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754">
-        <v>2.1213891999999999</v>
+        <v>2.2238506999999998</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A755">
-        <v>1.2166872</v>
+        <v>2.1213891999999999</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756">
-        <v>0.96138630000000003</v>
+        <v>1.2166872</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757">
-        <v>1.5120404000000001</v>
+        <v>0.96138630000000003</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758">
-        <v>1.7223397</v>
+        <v>1.5120404000000001</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759">
-        <v>1.5689485000000001</v>
+        <v>1.7223397</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760">
-        <v>1.4993247999999999</v>
+        <v>1.5689485000000001</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761">
-        <v>1.3235071</v>
+        <v>1.4993247999999999</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762">
-        <v>0.74046354999999997</v>
+        <v>1.3235071</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763">
-        <v>0.25109607</v>
+        <v>0.74046354999999997</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764">
-        <v>1.3754605</v>
+        <v>0.25109607</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765">
-        <v>1.4819268000000001</v>
+        <v>1.3754605</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766">
-        <v>0.59102469999999996</v>
+        <v>1.4819268000000001</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767">
-        <v>0.56040699999999999</v>
+        <v>0.59102469999999996</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768">
-        <v>1.2765884000000001</v>
+        <v>0.56040699999999999</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769">
-        <v>1.2042683000000001</v>
+        <v>1.2765884000000001</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770">
-        <v>1.2493162</v>
+        <v>1.2042683000000001</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771">
-        <v>0.76126510000000003</v>
+        <v>1.2493162</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772">
-        <v>1.3065427999999999</v>
+        <v>0.76126510000000003</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773">
-        <v>1.3764329</v>
+        <v>1.3065427999999999</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774">
-        <v>1.2117747000000001</v>
+        <v>1.3764329</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775">
-        <v>1.0630032</v>
+        <v>1.2117747000000001</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776">
-        <v>1.0548795</v>
+        <v>1.0630032</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777">
-        <v>1.1288377999999999</v>
+        <v>1.0548795</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778">
-        <v>1.0481997999999999</v>
+        <v>1.1288377999999999</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779">
-        <v>1.0761379</v>
+        <v>1.0481997999999999</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780">
-        <v>0.78686595000000004</v>
+        <v>1.0761379</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781">
-        <v>1.1180304000000001</v>
+        <v>0.78686595000000004</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782">
-        <v>0.92701995000000004</v>
+        <v>1.1180304000000001</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783">
-        <v>0.18466972000000001</v>
+        <v>0.92701995000000004</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784">
-        <v>0.94165480000000001</v>
+        <v>0.18466972000000001</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785">
-        <v>1.5350999999999999</v>
+        <v>0.94165480000000001</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786">
-        <v>1.3339471000000001</v>
+        <v>1.5350999999999999</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787">
-        <v>1.1876549000000001</v>
+        <v>1.3339471000000001</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788">
-        <v>0.18731041000000001</v>
+        <v>1.1876549000000001</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789">
-        <v>0.86324599999999996</v>
+        <v>0.18731041000000001</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790">
-        <v>1.3761022999999999</v>
+        <v>0.86324599999999996</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791">
-        <v>1.2466546000000001</v>
+        <v>1.3761022999999999</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792">
-        <v>1.1369857999999999</v>
+        <v>1.2466546000000001</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793">
-        <v>0.66078219999999999</v>
+        <v>1.1369857999999999</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794">
-        <v>0.4470112</v>
+        <v>0.66078219999999999</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795">
-        <v>0.22536896000000001</v>
+        <v>0.4470112</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796">
-        <v>0.47321257</v>
+        <v>0.22536896000000001</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A797">
-        <v>0.50190394999999999</v>
+        <v>0.47321257</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A798">
-        <v>0.58328170000000001</v>
+        <v>0.50190394999999999</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799">
-        <v>1.3703684</v>
+        <v>0.58328170000000001</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A800">
-        <v>1.3468894</v>
+        <v>1.3703684</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801">
-        <v>0.91200453000000004</v>
+        <v>1.3468894</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A802">
-        <v>0.43271732000000002</v>
+        <v>0.91200453000000004</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A803">
-        <v>0.40250552000000001</v>
+        <v>0.43271732000000002</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A804">
-        <v>1.4341705</v>
+        <v>0.40250552000000001</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A805">
-        <v>0.71930729999999998</v>
+        <v>1.4341705</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A806">
-        <v>1.454456</v>
+        <v>0.71930729999999998</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A807">
-        <v>1.175265</v>
+        <v>1.454456</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A808">
-        <v>8.9026809999999998E-2</v>
+        <v>1.175265</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A809">
-        <v>1.5852594</v>
+        <v>8.9026809999999998E-2</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810">
-        <v>1.4519837</v>
+        <v>1.5852594</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811">
-        <v>0.95751595</v>
+        <v>1.4519837</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812">
-        <v>1.2170814999999999</v>
+        <v>0.95751595</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813">
-        <v>1.2017777000000001</v>
+        <v>1.2170814999999999</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814">
-        <v>-0.56125749999999996</v>
+        <v>1.2017777000000001</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815">
-        <v>1.0423548</v>
+        <v>-0.56125749999999996</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816">
-        <v>0.80249524000000005</v>
+        <v>1.0423548</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817">
-        <v>1.6980375000000001</v>
+        <v>0.80249524000000005</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A818">
-        <v>0.73248060000000004</v>
+        <v>1.6980375000000001</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A819">
-        <v>1.5768807</v>
+        <v>0.73248060000000004</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820">
-        <v>1.2963822</v>
+        <v>1.5768807</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A821">
-        <v>1.1500201000000001</v>
+        <v>1.2963822</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A822">
-        <v>0.49433482000000001</v>
+        <v>1.1500201000000001</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A823">
-        <v>1.6569278000000001</v>
+        <v>0.49433482000000001</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A824">
-        <v>1.2139183</v>
+        <v>1.6569278000000001</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A825">
-        <v>1.1552165999999999</v>
+        <v>1.2139183</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A826">
-        <v>1.7397746000000001</v>
+        <v>1.1552165999999999</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A827">
-        <v>0.85304064000000002</v>
+        <v>1.7397746000000001</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A828">
-        <v>1.4766049999999999</v>
+        <v>0.85304064000000002</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A829">
-        <v>0.33581516</v>
+        <v>1.4766049999999999</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A830">
-        <v>1.5532223999999999</v>
+        <v>0.33581516</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A831">
-        <v>0.67703800000000003</v>
+        <v>1.5532223999999999</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A832">
-        <v>1.5888411</v>
+        <v>0.67703800000000003</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A833">
-        <v>1.4893940000000001</v>
+        <v>1.5888411</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834">
-        <v>0.60091466000000004</v>
+        <v>1.4893940000000001</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A835">
-        <v>-0.57222220000000001</v>
+        <v>0.60091466000000004</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836">
-        <v>1.3711861000000001</v>
+        <v>-0.57222220000000001</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837">
-        <v>1.3688233999999999</v>
+        <v>1.3711861000000001</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A838">
-        <v>0.68055505000000005</v>
+        <v>1.3688233999999999</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A839">
-        <v>-3.7046389999999998E-2</v>
+        <v>0.68055505000000005</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840">
-        <v>1.4813240000000001</v>
+        <v>-3.7046389999999998E-2</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841">
-        <v>1.17025</v>
+        <v>1.4813240000000001</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A842">
-        <v>1.3894721999999999</v>
+        <v>1.17025</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A843">
-        <v>1.6574675000000001</v>
+        <v>1.3894721999999999</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A844">
-        <v>0.96452623999999998</v>
+        <v>1.6574675000000001</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A845">
-        <v>1.6881832000000001</v>
+        <v>0.96452623999999998</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A846">
-        <v>1.7685308</v>
+        <v>1.6881832000000001</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A847">
-        <v>0.99239814000000004</v>
+        <v>1.7685308</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A848">
-        <v>1.5633098999999999</v>
+        <v>0.99239814000000004</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A849">
-        <v>0.38435872999999998</v>
+        <v>1.5633098999999999</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A850">
-        <v>1.6858188999999999</v>
+        <v>0.38435872999999998</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851">
-        <v>0.48934339999999998</v>
+        <v>1.6858188999999999</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852">
-        <v>1.7072957</v>
+        <v>0.48934339999999998</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A853">
-        <v>1.503042</v>
+        <v>1.7072957</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A854">
-        <v>1.6147624</v>
+        <v>1.503042</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A855">
-        <v>0.80189880000000002</v>
+        <v>1.6147624</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A856">
-        <v>1.4759594</v>
+        <v>0.80189880000000002</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A857">
-        <v>0.78615594</v>
+        <v>1.4759594</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A858">
-        <v>0.68910824999999998</v>
+        <v>0.78615594</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A859">
-        <v>1.6392541</v>
+        <v>0.68910824999999998</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A860">
-        <v>1.6799383000000001</v>
+        <v>1.6392541</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861">
-        <v>1.4529934</v>
+        <v>1.6799383000000001</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A862">
-        <v>0.52727263999999996</v>
+        <v>1.4529934</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A863">
-        <v>1.6164505</v>
+        <v>0.52727263999999996</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A864">
-        <v>0.68316304999999999</v>
+        <v>1.6164505</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A865">
-        <v>0.62497659999999999</v>
+        <v>0.68316304999999999</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A866">
-        <v>1.5457122000000001</v>
+        <v>0.62497659999999999</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A867">
-        <v>1.3420951000000001</v>
+        <v>1.5457122000000001</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A868">
-        <v>0.15636195</v>
+        <v>1.3420951000000001</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A869">
-        <v>1.4729688000000001</v>
+        <v>0.15636195</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A870">
-        <v>1.3264034</v>
+        <v>1.4729688000000001</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A871">
-        <v>0.59617394000000001</v>
+        <v>1.3264034</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A872">
-        <v>1.5541758999999999</v>
+        <v>0.59617394000000001</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873">
-        <v>1.4447563999999999</v>
+        <v>1.5541758999999999</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874">
-        <v>1.3650431999999999</v>
+        <v>1.4447563999999999</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A875">
-        <v>-0.51214599999999999</v>
+        <v>1.3650431999999999</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A876">
-        <v>0.62252490000000005</v>
+        <v>-0.51214599999999999</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A877">
-        <v>0.89232016000000003</v>
+        <v>0.62252490000000005</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878">
-        <v>1.4287304999999999</v>
+        <v>0.89232016000000003</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A879">
-        <v>0.21029590000000001</v>
+        <v>1.4287304999999999</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A880">
-        <v>0.60308499999999998</v>
+        <v>0.21029590000000001</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881">
-        <v>1.2841269</v>
+        <v>0.60308499999999998</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882">
-        <v>1.2236589</v>
+        <v>1.2841269</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883">
-        <v>1.2053529999999999</v>
+        <v>1.2236589</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884">
-        <v>1.0803719000000001</v>
+        <v>1.2053529999999999</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A885">
-        <v>0.47525582</v>
+        <v>1.0803719000000001</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886">
-        <v>0.35990116</v>
+        <v>0.47525582</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A887">
-        <v>0.6302063</v>
+        <v>0.35990116</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A888">
-        <v>1.5122150999999999</v>
+        <v>0.6302063</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A889">
-        <v>0.17344333000000001</v>
+        <v>1.5122150999999999</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A890">
-        <v>1.3701634</v>
+        <v>0.17344333000000001</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A891">
-        <v>0.121641666</v>
+        <v>1.3701634</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A892">
-        <v>1.3378000000000001</v>
+        <v>0.121641666</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A893">
-        <v>1.4131286000000001</v>
+        <v>1.3378000000000001</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A894">
-        <v>1.0384734</v>
+        <v>1.4131286000000001</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895">
-        <v>1.6245856999999999</v>
+        <v>1.0384734</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A896">
-        <v>1.5908973</v>
+        <v>1.6245856999999999</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A897">
-        <v>1.4699936</v>
+        <v>1.5908973</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A898">
-        <v>1.5162035</v>
+        <v>1.4699936</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A899">
-        <v>1.2326931000000001</v>
+        <v>1.5162035</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A900">
-        <v>1.1451224</v>
+        <v>1.2326931000000001</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901">
-        <v>1.1854209</v>
+        <v>1.1451224</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902">
-        <v>-0.35493027999999999</v>
+        <v>1.1854209</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903">
-        <v>1.4718903000000001</v>
+        <v>-0.35493027999999999</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A904">
-        <v>1.3412398000000001</v>
+        <v>1.4718903000000001</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A905">
-        <v>0.50768869999999999</v>
+        <v>1.3412398000000001</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A906">
-        <v>0.25211695000000001</v>
+        <v>0.50768869999999999</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A907">
-        <v>0.70165359999999999</v>
+        <v>0.25211695000000001</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A908">
-        <v>1.4020486999999999</v>
+        <v>0.70165359999999999</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A909">
-        <v>0.61250729999999998</v>
+        <v>1.4020486999999999</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A910">
-        <v>1.6058298</v>
+        <v>0.61250729999999998</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A911">
-        <v>0.59603229999999996</v>
+        <v>1.6058298</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A912">
-        <v>0.47497198000000002</v>
+        <v>0.59603229999999996</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913">
-        <v>1.2700908</v>
+        <v>0.47497198000000002</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A914">
-        <v>0.97714409999999996</v>
+        <v>1.2700908</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915">
-        <v>1.1481948</v>
+        <v>0.97714409999999996</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916">
-        <v>1.4369445999999999</v>
+        <v>1.1481948</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A917">
-        <v>0.48911252999999999</v>
+        <v>1.4369445999999999</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A918">
-        <v>0.99216859999999996</v>
+        <v>0.48911252999999999</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A919">
-        <v>1.2080356000000001</v>
+        <v>0.99216859999999996</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A920">
-        <v>0.91433779999999998</v>
+        <v>1.2080356000000001</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921">
-        <v>0.42809328000000002</v>
+        <v>0.91433779999999998</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922">
-        <v>1.4723248</v>
+        <v>0.42809328000000002</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923">
-        <v>1.3879565</v>
+        <v>1.4723248</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A924">
-        <v>1.1136368999999999</v>
+        <v>1.3879565</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925">
-        <v>1.2350935000000001</v>
+        <v>1.1136368999999999</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A926">
-        <v>0.29426059999999998</v>
+        <v>1.2350935000000001</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A927">
-        <v>1.1248488000000001</v>
+        <v>0.29426059999999998</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928">
-        <v>0.33190239999999999</v>
+        <v>1.1248488000000001</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A929">
-        <v>1.8017426999999999</v>
+        <v>0.33190239999999999</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A930">
-        <v>0.47581813000000001</v>
+        <v>1.8017426999999999</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A931">
-        <v>1.3064175</v>
+        <v>0.47581813000000001</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A932">
-        <v>1.3432934000000001</v>
+        <v>1.3064175</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A933">
-        <v>1.3367427999999999</v>
+        <v>1.3432934000000001</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A934">
-        <v>1.3630518</v>
+        <v>1.3367427999999999</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A935">
-        <v>1.2808056000000001</v>
+        <v>1.3630518</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A936">
-        <v>1.1746881</v>
+        <v>1.2808056000000001</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A937">
-        <v>1.286116</v>
+        <v>1.1746881</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A938">
-        <v>0.27258842999999999</v>
+        <v>1.286116</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A939">
-        <v>0.64666999999999997</v>
+        <v>0.27258842999999999</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A940">
-        <v>1.559839</v>
+        <v>0.64666999999999997</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A941">
-        <v>1.4146822999999999</v>
+        <v>1.559839</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A942">
-        <v>-0.33068704999999998</v>
+        <v>1.4146822999999999</v>
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A943">
-        <v>0.39729323999999999</v>
+        <v>-0.33068704999999998</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A944">
-        <v>1.4212574</v>
+        <v>0.39729323999999999</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A945">
-        <v>1.2781507000000001</v>
+        <v>1.4212574</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A946">
-        <v>0.27568536999999999</v>
+        <v>1.2781507000000001</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A947">
-        <v>1.2816065999999999</v>
+        <v>0.27568536999999999</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A948">
-        <v>0.80688070000000001</v>
+        <v>1.2816065999999999</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A949">
-        <v>0.55362283999999995</v>
+        <v>0.80688070000000001</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A950">
-        <v>1.4651791000000001</v>
+        <v>0.55362283999999995</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A951">
-        <v>1.331232</v>
+        <v>1.4651791000000001</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A952">
-        <v>1.215814</v>
+        <v>1.331232</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A953">
-        <v>0.51512455999999995</v>
+        <v>1.215814</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A954">
-        <v>0.71231049999999996</v>
+        <v>0.51512455999999995</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A955">
-        <v>1.3894675999999999</v>
+        <v>0.71231049999999996</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A956">
-        <v>1.5790327</v>
+        <v>1.3894675999999999</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A957">
-        <v>0.35876372000000001</v>
+        <v>1.5790327</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958">
-        <v>1.5238023999999999</v>
+        <v>0.35876372000000001</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A959">
-        <v>0.49171698000000003</v>
+        <v>1.5238023999999999</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A960">
-        <v>1.1194658</v>
+        <v>0.49171698000000003</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A961">
-        <v>1.2740632999999999</v>
+        <v>1.1194658</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A962">
-        <v>0.42299154</v>
+        <v>1.2740632999999999</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A963">
-        <v>1.4512278000000001</v>
+        <v>0.42299154</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A964">
-        <v>0.79641379999999995</v>
+        <v>1.4512278000000001</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A965">
-        <v>0.69993360000000004</v>
+        <v>0.79641379999999995</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A966">
-        <v>1.5263395</v>
+        <v>0.69993360000000004</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A967">
-        <v>1.4482113999999999</v>
+        <v>1.5263395</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A968">
-        <v>1.2328448000000001</v>
+        <v>1.4482113999999999</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A969">
-        <v>0.29653649999999998</v>
+        <v>1.2328448000000001</v>
       </c>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A970">
-        <v>1.4160277999999999</v>
+        <v>0.29653649999999998</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A971">
-        <v>1.4160463999999999</v>
+        <v>1.4160277999999999</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A972">
-        <v>1.3632652000000001</v>
+        <v>1.4160463999999999</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A973">
-        <v>1.3915261999999999</v>
+        <v>1.3632652000000001</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A974">
-        <v>0.48419220000000002</v>
+        <v>1.3915261999999999</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A975">
-        <v>1.2435655999999999</v>
+        <v>0.48419220000000002</v>
       </c>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A976">
-        <v>1.1608350000000001</v>
+        <v>1.2435655999999999</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A977">
-        <v>0.64458519999999997</v>
+        <v>1.1608350000000001</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A978">
-        <v>-3.0290158000000001E-2</v>
+        <v>0.64458519999999997</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A979">
-        <v>1.4517293</v>
+        <v>-3.0290158000000001E-2</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A980">
-        <v>0.49876487000000003</v>
+        <v>1.4517293</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A981">
-        <v>1.2000818</v>
+        <v>0.49876487000000003</v>
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A982">
-        <v>1.1702192</v>
+        <v>1.2000818</v>
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A983">
-        <v>1.0020404999999999</v>
+        <v>1.1702192</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A984">
-        <v>0.123194315</v>
+        <v>1.0020404999999999</v>
       </c>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A985">
-        <v>1.3050094999999999</v>
+        <v>0.123194315</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A986">
-        <v>0.26722452000000002</v>
+        <v>1.3050094999999999</v>
       </c>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A987">
-        <v>-1.9890637999999999E-2</v>
+        <v>0.26722452000000002</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A988">
-        <v>0.39764519999999998</v>
+        <v>-1.9890637999999999E-2</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A989">
-        <v>0.20389713000000001</v>
+        <v>0.39764519999999998</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A990">
-        <v>1.4526082</v>
+        <v>0.20389713000000001</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A991">
-        <v>0.60672479999999995</v>
+        <v>1.4526082</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A992">
-        <v>0.74815105999999998</v>
+        <v>0.60672479999999995</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A993">
-        <v>1.3627937000000001</v>
+        <v>0.74815105999999998</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A994">
-        <v>1.1416842</v>
+        <v>1.3627937000000001</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A995">
-        <v>5.8656095999999998E-2</v>
+        <v>1.1416842</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A996">
-        <v>0.76312214</v>
+        <v>5.8656095999999998E-2</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A997">
-        <v>1.4480629</v>
+        <v>0.76312214</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A998">
-        <v>1.2889326000000001</v>
+        <v>1.4480629</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A999">
-        <v>1.1969848999999999</v>
+        <v>1.2889326000000001</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1000">
-        <v>-0.67664086999999995</v>
+        <v>1.1969848999999999</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1001">
-        <v>1.2190274999999999</v>
+        <v>-0.67664086999999995</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1002">
-        <v>-1.08369</v>
+        <v>1.2190274999999999</v>
       </c>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1003">
-        <v>1.3567696</v>
+        <v>-1.08369</v>
       </c>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1004">
-        <v>1.3834276999999999</v>
+        <v>1.3567696</v>
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1005">
-        <v>1.2985066999999999</v>
+        <v>1.3834276999999999</v>
       </c>
     </row>
     <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1006">
-        <v>0.57317764000000004</v>
+        <v>1.2985066999999999</v>
       </c>
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1007">
-        <v>1.2124813000000001</v>
+        <v>0.57317764000000004</v>
       </c>
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1008">
-        <v>1.0412842</v>
+        <v>1.2124813000000001</v>
       </c>
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1009">
-        <v>0.21353768000000001</v>
+        <v>1.0412842</v>
       </c>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1010">
-        <v>0.22441769</v>
+        <v>0.21353768000000001</v>
       </c>
     </row>
     <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1011">
-        <v>9.1732553999999994E-2</v>
+        <v>0.22441769</v>
       </c>
     </row>
     <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1012">
-        <v>1.3403244000000001</v>
+        <v>9.1732553999999994E-2</v>
       </c>
     </row>
     <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1013">
-        <v>1.1216025000000001</v>
+        <v>1.3403244000000001</v>
       </c>
     </row>
     <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1014">
-        <v>0.38495309999999999</v>
+        <v>1.1216025000000001</v>
       </c>
     </row>
     <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1015">
-        <v>1.3660136000000001</v>
+        <v>0.38495309999999999</v>
       </c>
     </row>
     <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1016">
-        <v>1.0098332000000001</v>
+        <v>1.3660136000000001</v>
       </c>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1017">
-        <v>0.63086056999999995</v>
+        <v>1.0098332000000001</v>
       </c>
     </row>
     <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1018">
-        <v>1.5536095999999999</v>
+        <v>0.63086056999999995</v>
       </c>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1019">
-        <v>1.5039579000000001</v>
+        <v>1.5536095999999999</v>
       </c>
     </row>
     <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1020">
-        <v>1.1233645999999999</v>
+        <v>1.5039579000000001</v>
       </c>
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1021">
-        <v>1.1880727</v>
+        <v>1.1233645999999999</v>
       </c>
     </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1022">
-        <v>0.13545840000000001</v>
+        <v>1.1880727</v>
       </c>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1023">
-        <v>0.46905400000000003</v>
+        <v>0.13545840000000001</v>
       </c>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1024">
-        <v>1.3877649999999999</v>
+        <v>0.46905400000000003</v>
       </c>
     </row>
     <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1025">
-        <v>1.4159676000000001</v>
+        <v>1.3877649999999999</v>
       </c>
     </row>
     <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1026">
-        <v>0.54441890000000004</v>
+        <v>1.4159676000000001</v>
       </c>
     </row>
     <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1027">
-        <v>1.4030156</v>
+        <v>0.54441890000000004</v>
       </c>
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1028">
-        <v>1.2236320999999999</v>
+        <v>1.4030156</v>
       </c>
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1029">
-        <v>0.63041495999999997</v>
+        <v>1.2236320999999999</v>
       </c>
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1030">
-        <v>0.58657366</v>
+        <v>0.63041495999999997</v>
       </c>
     </row>
     <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1031">
-        <v>1.6633587999999999</v>
+        <v>0.58657366</v>
       </c>
     </row>
     <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1032">
-        <v>0.47822785000000001</v>
+        <v>1.6633587999999999</v>
       </c>
     </row>
     <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1033">
-        <v>0.83182100000000003</v>
+        <v>0.47822785000000001</v>
       </c>
     </row>
     <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1034">
-        <v>1.3561125000000001</v>
+        <v>0.83182100000000003</v>
       </c>
     </row>
     <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1035">
-        <v>1.2966602</v>
+        <v>1.3561125000000001</v>
       </c>
     </row>
     <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1036">
-        <v>1.1921679999999999</v>
+        <v>1.2966602</v>
       </c>
     </row>
     <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1037">
-        <v>0.52826010000000001</v>
+        <v>1.1921679999999999</v>
       </c>
     </row>
     <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1038">
-        <v>0.57442605000000002</v>
+        <v>0.52826010000000001</v>
       </c>
     </row>
     <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1039">
-        <v>1.5166408</v>
+        <v>0.57442605000000002</v>
       </c>
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1040">
-        <v>1.3035824</v>
+        <v>1.5166408</v>
       </c>
     </row>
     <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1041">
-        <v>1.0952911000000001</v>
+        <v>1.3035824</v>
       </c>
     </row>
     <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1042">
-        <v>1.2670515</v>
+        <v>1.0952911000000001</v>
       </c>
     </row>
     <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1043">
-        <v>0.66409899999999999</v>
+        <v>1.2670515</v>
       </c>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1044">
-        <v>1.3359041</v>
+        <v>0.66409899999999999</v>
       </c>
     </row>
     <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1045">
-        <v>0.29953972000000001</v>
+        <v>1.3359041</v>
       </c>
     </row>
     <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1046">
-        <v>1.4476514</v>
+        <v>0.29953972000000001</v>
       </c>
     </row>
     <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1047">
-        <v>1.4716982000000001</v>
+        <v>1.4476514</v>
       </c>
     </row>
     <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1048">
-        <v>1.4060385</v>
+        <v>1.4716982000000001</v>
       </c>
     </row>
     <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1049">
-        <v>1.3035985000000001</v>
+        <v>1.4060385</v>
       </c>
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1050">
-        <v>0.28996675999999999</v>
+        <v>1.3035985000000001</v>
       </c>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1051">
-        <v>1.3436538</v>
+        <v>0.28996675999999999</v>
       </c>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1052">
-        <v>1.2579852</v>
+        <v>1.3436538</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1053">
-        <v>1.0107931999999999</v>
+        <v>1.2579852</v>
       </c>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1054">
-        <v>1.1812887000000001</v>
+        <v>1.0107931999999999</v>
       </c>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1055">
-        <v>0.91127230000000004</v>
+        <v>1.1812887000000001</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1056">
-        <v>-0.13850892000000001</v>
+        <v>0.91127230000000004</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1057">
-        <v>1.2760362999999999</v>
+        <v>-0.13850892000000001</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1058">
-        <v>1.376932</v>
+        <v>1.2760362999999999</v>
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1059">
-        <v>0.4968921</v>
+        <v>1.376932</v>
       </c>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1060">
-        <v>1.2823659999999999</v>
+        <v>0.4968921</v>
       </c>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1061">
-        <v>1.2068737</v>
+        <v>1.2823659999999999</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1062">
-        <v>1.1590701000000001</v>
+        <v>1.2068737</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1063">
-        <v>0.4891142</v>
+        <v>1.1590701000000001</v>
       </c>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1064">
-        <v>1.3476033999999999</v>
+        <v>0.4891142</v>
       </c>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1065">
-        <v>0.21956100000000001</v>
+        <v>1.3476033999999999</v>
       </c>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1066">
-        <v>0.67440677000000004</v>
+        <v>0.21956100000000001</v>
       </c>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1067">
-        <v>1.41692</v>
+        <v>0.67440677000000004</v>
       </c>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1068">
-        <v>1.2744199</v>
+        <v>1.41692</v>
       </c>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1069">
-        <v>1.2070425</v>
+        <v>1.2744199</v>
       </c>
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1070">
-        <v>0.24837595000000001</v>
+        <v>1.2070425</v>
       </c>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1071">
-        <v>1.1545961</v>
+        <v>0.24837595000000001</v>
       </c>
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1072">
-        <v>0.73255526999999998</v>
+        <v>1.1545961</v>
       </c>
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1073">
-        <v>0.307668</v>
+        <v>0.73255526999999998</v>
       </c>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1074">
-        <v>1.3067647</v>
+        <v>0.307668</v>
       </c>
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1075">
-        <v>0.24771760000000001</v>
+        <v>1.3067647</v>
       </c>
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1076">
-        <v>1.2491212</v>
+        <v>0.24771760000000001</v>
       </c>
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1077">
-        <v>1.0895269999999999</v>
+        <v>1.2491212</v>
       </c>
     </row>
     <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1078">
-        <v>1.1996137</v>
+        <v>1.0895269999999999</v>
       </c>
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1079">
-        <v>0.47087987999999997</v>
+        <v>1.1996137</v>
       </c>
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1080">
-        <v>1.2997281999999999</v>
+        <v>0.47087987999999997</v>
       </c>
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1081">
-        <v>1.2324317</v>
+        <v>1.2997281999999999</v>
       </c>
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1082">
-        <v>1.2711219</v>
+        <v>1.2324317</v>
       </c>
     </row>
     <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1083">
-        <v>1.1291629999999999</v>
+        <v>1.2711219</v>
       </c>
     </row>
     <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1084">
-        <v>1.3312539999999999</v>
+        <v>1.1291629999999999</v>
       </c>
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1085">
-        <v>0.61106479999999996</v>
+        <v>1.3312539999999999</v>
       </c>
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1086">
-        <v>1.2802718</v>
+        <v>0.61106479999999996</v>
       </c>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1087">
-        <v>1.1919481999999999</v>
+        <v>1.2802718</v>
       </c>
     </row>
     <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1088">
-        <v>1.0865775</v>
+        <v>1.1919481999999999</v>
       </c>
     </row>
     <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1089">
-        <v>0.24527890999999999</v>
+        <v>1.0865775</v>
       </c>
     </row>
     <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1090">
-        <v>1.2736107000000001</v>
+        <v>0.24527890999999999</v>
       </c>
     </row>
     <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1091">
-        <v>1.2667710000000001</v>
+        <v>1.2736107000000001</v>
       </c>
     </row>
     <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1092">
-        <v>1.1349085999999999</v>
+        <v>1.2667710000000001</v>
       </c>
     </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1093">
-        <v>1.2283685</v>
+        <v>1.1349085999999999</v>
       </c>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1094">
-        <v>0.45830417000000001</v>
+        <v>1.2283685</v>
       </c>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1095">
-        <v>0.89442200000000005</v>
+        <v>0.45830417000000001</v>
       </c>
     </row>
     <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1096">
-        <v>1.1878735</v>
+        <v>0.89442200000000005</v>
       </c>
     </row>
     <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1097">
-        <v>0.26963009999999998</v>
+        <v>1.1878735</v>
       </c>
     </row>
     <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1098">
-        <v>1.2073607</v>
+        <v>0.26963009999999998</v>
       </c>
     </row>
     <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1099">
-        <v>1.0780246</v>
+        <v>1.2073607</v>
       </c>
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1100">
-        <v>0.21928169</v>
+        <v>1.0780246</v>
       </c>
     </row>
     <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1101">
-        <v>0.44899470000000002</v>
+        <v>0.21928169</v>
       </c>
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1102">
-        <v>1.5819308000000001</v>
+        <v>0.44899470000000002</v>
       </c>
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1103">
-        <v>1.2480488000000001</v>
+        <v>1.5819308000000001</v>
       </c>
     </row>
     <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1104">
-        <v>0.76197119999999996</v>
+        <v>1.2480488000000001</v>
       </c>
     </row>
     <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1105">
-        <v>1.2131703</v>
+        <v>0.76197119999999996</v>
       </c>
     </row>
     <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1106">
-        <v>1.1094307000000001</v>
+        <v>1.2131703</v>
       </c>
     </row>
     <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1107">
-        <v>1.0368120000000001</v>
+        <v>1.1094307000000001</v>
       </c>
     </row>
     <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1108">
-        <v>0.34312474999999998</v>
+        <v>1.0368120000000001</v>
       </c>
     </row>
     <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1109">
-        <v>1.2166568</v>
+        <v>0.34312474999999998</v>
       </c>
     </row>
     <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1110">
-        <v>1.1255980000000001</v>
+        <v>1.2166568</v>
       </c>
     </row>
     <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1111">
-        <v>-1.59107</v>
+        <v>1.1255980000000001</v>
       </c>
     </row>
     <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1112">
-        <v>1.2825131000000001</v>
+        <v>-1.59107</v>
       </c>
     </row>
     <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1113">
-        <v>1.2734072999999999</v>
+        <v>1.2825131000000001</v>
       </c>
     </row>
     <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1114">
-        <v>0.54352975000000003</v>
+        <v>1.2734072999999999</v>
       </c>
     </row>
     <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1115">
-        <v>0.19422713999999999</v>
+        <v>0.54352975000000003</v>
       </c>
     </row>
     <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1116">
-        <v>0.34024232999999998</v>
+        <v>0.19422713999999999</v>
       </c>
     </row>
     <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1117">
-        <v>1.5186104</v>
+        <v>0.34024232999999998</v>
       </c>
     </row>
     <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1118">
-        <v>0.56716334999999996</v>
+        <v>1.5186104</v>
       </c>
     </row>
     <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1119">
-        <v>1.2726961000000001</v>
+        <v>0.56716334999999996</v>
       </c>
     </row>
     <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1120">
-        <v>0.75579165999999998</v>
+        <v>1.2726961000000001</v>
       </c>
     </row>
     <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1121">
-        <v>1.2061385</v>
+        <v>0.75579165999999998</v>
       </c>
     </row>
     <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1122">
-        <v>1.1841512000000001</v>
+        <v>1.2061385</v>
       </c>
     </row>
     <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1123">
-        <v>-0.13461459000000001</v>
+        <v>1.1841512000000001</v>
       </c>
     </row>
     <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1124">
-        <v>1.2064476</v>
+        <v>-0.13461459000000001</v>
       </c>
     </row>
     <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1125">
-        <v>0.3397268</v>
+        <v>1.2064476</v>
       </c>
     </row>
     <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1126">
-        <v>1.0626886</v>
+        <v>0.3397268</v>
       </c>
     </row>
     <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1127">
-        <v>0.55987640000000005</v>
+        <v>1.0626886</v>
       </c>
     </row>
     <row r="1128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1128">
-        <v>1.0465032000000001</v>
+        <v>0.55987640000000005</v>
       </c>
     </row>
     <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1129">
-        <v>1.0066822</v>
+        <v>1.0465032000000001</v>
       </c>
     </row>
     <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1130">
-        <v>1.0208718000000001</v>
+        <v>1.0066822</v>
       </c>
     </row>
     <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1131">
-        <v>0.26984963000000001</v>
+        <v>1.0208718000000001</v>
       </c>
     </row>
     <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1132">
-        <v>0.6386155</v>
+        <v>0.26984963000000001</v>
       </c>
     </row>
     <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1133">
-        <v>1.067151</v>
+        <v>0.6386155</v>
       </c>
     </row>
     <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1134">
-        <v>1.0181354</v>
+        <v>1.067151</v>
       </c>
     </row>
     <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1135">
-        <v>-0.52816070000000004</v>
+        <v>1.0181354</v>
       </c>
     </row>
     <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1136">
-        <v>1.7354802</v>
+        <v>-0.52816070000000004</v>
       </c>
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1137">
-        <v>1.3234142</v>
+        <v>1.7354802</v>
       </c>
     </row>
     <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1138">
-        <v>0.18267876999999999</v>
+        <v>1.3234142</v>
       </c>
     </row>
     <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1139">
-        <v>-0.18063518000000001</v>
+        <v>0.18267876999999999</v>
       </c>
     </row>
     <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1140">
-        <v>1.2094393000000001</v>
+        <v>-0.18063518000000001</v>
       </c>
     </row>
     <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1141">
-        <v>1.0907186</v>
+        <v>1.2094393000000001</v>
       </c>
     </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1142">
-        <v>1.0221868999999999</v>
+        <v>1.0907186</v>
       </c>
     </row>
     <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1143">
-        <v>0.24518615999999999</v>
+        <v>1.0221868999999999</v>
       </c>
     </row>
     <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1144">
-        <v>0.47007473999999999</v>
+        <v>0.24518615999999999</v>
       </c>
     </row>
     <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1145">
-        <v>1.1027290999999999</v>
+        <v>0.47007473999999999</v>
       </c>
     </row>
     <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1146">
-        <v>6.7147689999999996E-2</v>
+        <v>1.1027290999999999</v>
       </c>
     </row>
     <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1147">
-        <v>0.82520013999999997</v>
+        <v>6.7147689999999996E-2</v>
       </c>
     </row>
     <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1148">
-        <v>0.82846810000000004</v>
+        <v>0.82520013999999997</v>
       </c>
     </row>
     <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1149">
-        <v>0.60946553999999997</v>
+        <v>0.82846810000000004</v>
       </c>
     </row>
     <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1150">
-        <v>1.0293403000000001</v>
+        <v>0.60946553999999997</v>
       </c>
     </row>
     <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1151">
-        <v>1.0574410999999999</v>
+        <v>1.0293403000000001</v>
       </c>
     </row>
     <row r="1152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1152">
-        <v>-6.6723089999999999E-2</v>
+        <v>1.0574410999999999</v>
       </c>
     </row>
     <row r="1153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1153">
-        <v>1.0492009</v>
+        <v>-6.6723089999999999E-2</v>
       </c>
     </row>
     <row r="1154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1154">
-        <v>0.62728819999999996</v>
+        <v>1.0492009</v>
       </c>
     </row>
     <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1155">
-        <v>9.7825709999999996E-2</v>
+        <v>0.62728819999999996</v>
       </c>
     </row>
     <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1156">
-        <v>1.0979991</v>
+        <v>9.7825709999999996E-2</v>
       </c>
     </row>
     <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1157">
-        <v>1.0333319999999999</v>
+        <v>1.0979991</v>
       </c>
     </row>
     <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1158">
-        <v>0.91433759999999997</v>
+        <v>1.0333319999999999</v>
       </c>
     </row>
     <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1159">
-        <v>0.96176980000000001</v>
+        <v>0.91433759999999997</v>
       </c>
     </row>
     <row r="1160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1160">
-        <v>0.90461610000000003</v>
+        <v>0.96176980000000001</v>
       </c>
     </row>
     <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1161">
-        <v>0.78565704999999997</v>
+        <v>0.90461610000000003</v>
       </c>
     </row>
     <row r="1162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1162">
-        <v>0.35888204000000001</v>
+        <v>0.78565704999999997</v>
       </c>
     </row>
     <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1163">
-        <v>0.14764139000000001</v>
+        <v>0.35888204000000001</v>
       </c>
     </row>
     <row r="1164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1164">
-        <v>1.051787</v>
+        <v>0.14764139000000001</v>
       </c>
     </row>
     <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1165">
-        <v>1.0112429999999999</v>
+        <v>1.051787</v>
       </c>
     </row>
     <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1166">
-        <v>0.98352439999999997</v>
+        <v>1.0112429999999999</v>
       </c>
     </row>
     <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1167">
-        <v>-0.58293253</v>
+        <v>0.98352439999999997</v>
       </c>
     </row>
     <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1168">
-        <v>8.1483819999999998E-2</v>
+        <v>-0.58293253</v>
       </c>
     </row>
     <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1169">
-        <v>0.43850312000000002</v>
+        <v>8.1483819999999998E-2</v>
       </c>
     </row>
     <row r="1170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1170">
-        <v>0.24071466999999999</v>
+        <v>0.43850312000000002</v>
       </c>
     </row>
     <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1171">
-        <v>0.27677416999999999</v>
+        <v>0.24071466999999999</v>
       </c>
     </row>
     <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1172">
-        <v>1.0050182000000001</v>
+        <v>0.27677416999999999</v>
       </c>
     </row>
     <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1173">
-        <v>-6.2033949999999997E-2</v>
+        <v>1.0050182000000001</v>
       </c>
     </row>
     <row r="1174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1174">
-        <v>0.46210319999999999</v>
+        <v>-6.2033949999999997E-2</v>
       </c>
     </row>
     <row r="1175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1175">
-        <v>1.2150103999999999</v>
+        <v>0.46210319999999999</v>
       </c>
     </row>
     <row r="1176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1176">
-        <v>1.2429336</v>
+        <v>1.2150103999999999</v>
       </c>
     </row>
     <row r="1177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1177">
-        <v>1.1195222</v>
+        <v>1.2429336</v>
       </c>
     </row>
     <row r="1178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1178">
-        <v>1.0342665</v>
+        <v>1.1195222</v>
       </c>
     </row>
     <row r="1179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1179">
-        <v>0.68375200000000003</v>
+        <v>1.0342665</v>
       </c>
     </row>
     <row r="1180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1180">
-        <v>0.22566639999999999</v>
+        <v>0.68375200000000003</v>
       </c>
     </row>
     <row r="1181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1181">
-        <v>1.0250568</v>
+        <v>0.22566639999999999</v>
       </c>
     </row>
     <row r="1182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1182">
-        <v>1.0337130000000001</v>
+        <v>1.0250568</v>
       </c>
     </row>
     <row r="1183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1183">
-        <v>0.71683059999999998</v>
+        <v>1.0337130000000001</v>
       </c>
     </row>
     <row r="1184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1184">
-        <v>0.48088934999999999</v>
+        <v>0.71683059999999998</v>
       </c>
     </row>
     <row r="1185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1185">
-        <v>1.2020356999999999</v>
+        <v>0.48088934999999999</v>
       </c>
     </row>
     <row r="1186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1186">
-        <v>1.0812120000000001</v>
+        <v>1.2020356999999999</v>
       </c>
     </row>
     <row r="1187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1187">
-        <v>1.0082256999999999</v>
+        <v>1.0812120000000001</v>
       </c>
     </row>
     <row r="1188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1188">
-        <v>1.0489736999999999</v>
+        <v>1.0082256999999999</v>
       </c>
     </row>
     <row r="1189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1189">
-        <v>-1.1263516</v>
+        <v>1.0489736999999999</v>
       </c>
     </row>
     <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1190">
-        <v>1.1012888000000001</v>
+        <v>-1.1263516</v>
       </c>
     </row>
     <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1191">
-        <v>0.32582638000000003</v>
+        <v>1.1012888000000001</v>
       </c>
     </row>
     <row r="1192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1192">
-        <v>0.29026622000000002</v>
+        <v>0.32582638000000003</v>
       </c>
     </row>
     <row r="1193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1193">
-        <v>1.1921945</v>
+        <v>0.29026622000000002</v>
       </c>
     </row>
     <row r="1194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1194">
-        <v>1.1970997000000001</v>
+        <v>1.1921945</v>
       </c>
     </row>
     <row r="1195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1195">
-        <v>1.0374091000000001</v>
+        <v>1.1970997000000001</v>
       </c>
     </row>
     <row r="1196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1196">
-        <v>-0.25209522000000001</v>
+        <v>1.0374091000000001</v>
       </c>
     </row>
     <row r="1197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1197">
-        <v>0.67286900000000005</v>
+        <v>-0.25209522000000001</v>
       </c>
     </row>
     <row r="1198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1198">
-        <v>1.131372</v>
+        <v>0.67286900000000005</v>
       </c>
     </row>
     <row r="1199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1199">
-        <v>0.94411504000000002</v>
+        <v>1.131372</v>
       </c>
     </row>
     <row r="1200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1200">
-        <v>1.0669607000000001</v>
+        <v>0.94411504000000002</v>
       </c>
     </row>
     <row r="1201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1201">
-        <v>-0.76397740000000003</v>
+        <v>1.0669607000000001</v>
       </c>
     </row>
     <row r="1202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1202">
-        <v>1.0957330000000001</v>
+        <v>-0.76397740000000003</v>
       </c>
     </row>
     <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1203">
-        <v>0.71518870000000001</v>
+        <v>1.0957330000000001</v>
       </c>
     </row>
     <row r="1204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1204">
-        <v>1.1721288999999999</v>
+        <v>0.71518870000000001</v>
       </c>
     </row>
     <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1205">
-        <v>0.54524910000000004</v>
+        <v>1.1721288999999999</v>
       </c>
     </row>
     <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1206">
-        <v>1.0209159000000001</v>
+        <v>0.54524910000000004</v>
       </c>
     </row>
     <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1207">
-        <v>1.0659463</v>
+        <v>1.0209159000000001</v>
       </c>
     </row>
     <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1208">
-        <v>-6.9360240000000004E-2</v>
+        <v>1.0659463</v>
       </c>
     </row>
     <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1209">
-        <v>1.2110533000000001</v>
+        <v>-6.9360240000000004E-2</v>
       </c>
     </row>
     <row r="1210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1210">
-        <v>1.0555638000000001</v>
+        <v>1.2110533000000001</v>
       </c>
     </row>
     <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1211">
-        <v>0.68964329999999996</v>
+        <v>1.0555638000000001</v>
       </c>
     </row>
     <row r="1212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1212">
-        <v>0.85736703999999997</v>
+        <v>0.68964329999999996</v>
       </c>
     </row>
     <row r="1213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1213">
-        <v>-0.45950999999999997</v>
+        <v>0.85736703999999997</v>
       </c>
     </row>
     <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1214">
-        <v>0.97493300000000005</v>
+        <v>-0.45950999999999997</v>
       </c>
     </row>
     <row r="1215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1215">
-        <v>0.77991960000000005</v>
+        <v>0.97493300000000005</v>
       </c>
     </row>
     <row r="1216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1216">
-        <v>0.69134200000000001</v>
+        <v>0.77991960000000005</v>
       </c>
     </row>
     <row r="1217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1217">
-        <v>1.2520703</v>
+        <v>0.69134200000000001</v>
       </c>
     </row>
     <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1218">
-        <v>1.1742314</v>
+        <v>1.2520703</v>
       </c>
     </row>
     <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1219">
-        <v>0.98046935000000002</v>
+        <v>1.1742314</v>
       </c>
     </row>
     <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1220">
-        <v>-2.405303E-2</v>
+        <v>0.98046935000000002</v>
       </c>
     </row>
     <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1221">
-        <v>1.0719434999999999</v>
+        <v>-2.405303E-2</v>
       </c>
     </row>
     <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1222">
-        <v>0.42026085000000002</v>
+        <v>1.0719434999999999</v>
       </c>
     </row>
     <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1223">
-        <v>0.21250626</v>
+        <v>0.42026085000000002</v>
       </c>
     </row>
     <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1224">
-        <v>1.1142483000000001</v>
+        <v>0.21250626</v>
       </c>
     </row>
     <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1225">
-        <v>0.44928630000000003</v>
+        <v>1.1142483000000001</v>
       </c>
     </row>
     <row r="1226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1226">
-        <v>1.1604262999999999</v>
+        <v>0.44928630000000003</v>
       </c>
     </row>
     <row r="1227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1227">
-        <v>0.1303348</v>
+        <v>1.1604262999999999</v>
       </c>
     </row>
     <row r="1228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1228">
-        <v>1.135635</v>
+        <v>0.1303348</v>
       </c>
     </row>
     <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1229">
-        <v>0.36073554000000002</v>
+        <v>1.135635</v>
       </c>
     </row>
     <row r="1230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1230">
-        <v>1.0565159</v>
+        <v>0.36073554000000002</v>
       </c>
     </row>
     <row r="1231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1231">
-        <v>0.93322545000000001</v>
+        <v>1.0565159</v>
       </c>
     </row>
     <row r="1232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1232">
-        <v>-4.2931563999999998E-2</v>
+        <v>0.93322545000000001</v>
       </c>
     </row>
     <row r="1233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1233">
-        <v>0.97885907000000005</v>
+        <v>-4.2931563999999998E-2</v>
       </c>
     </row>
     <row r="1234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1234">
-        <v>0.56940480000000004</v>
+        <v>0.97885907000000005</v>
       </c>
     </row>
     <row r="1235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1235">
-        <v>1.0581664</v>
+        <v>0.56940480000000004</v>
       </c>
     </row>
     <row r="1236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1236">
-        <v>1.0894827</v>
+        <v>1.0581664</v>
       </c>
     </row>
     <row r="1237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1237">
-        <v>0.17335849</v>
+        <v>1.0894827</v>
       </c>
     </row>
     <row r="1238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1238">
-        <v>0.63762759999999996</v>
+        <v>0.17335849</v>
       </c>
     </row>
     <row r="1239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1239">
-        <v>-6.9144910000000004E-2</v>
+        <v>0.63762759999999996</v>
       </c>
     </row>
     <row r="1240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1240">
-        <v>1.0008524999999999</v>
+        <v>-6.9144910000000004E-2</v>
       </c>
     </row>
     <row r="1241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1241">
-        <v>-0.1957914</v>
+        <v>1.0008524999999999</v>
       </c>
     </row>
     <row r="1242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1242">
-        <v>1.2485849</v>
+        <v>-0.1957914</v>
       </c>
     </row>
     <row r="1243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1243">
-        <v>0.14587285999999999</v>
+        <v>1.2485849</v>
       </c>
     </row>
     <row r="1244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1244">
-        <v>1.3692305</v>
+        <v>0.14587285999999999</v>
       </c>
     </row>
     <row r="1245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1245">
-        <v>0.86704119999999996</v>
+        <v>1.3692305</v>
       </c>
     </row>
     <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1246">
-        <v>-0.25691881999999999</v>
+        <v>0.86704119999999996</v>
       </c>
     </row>
     <row r="1247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1247">
-        <v>-0.29918616999999997</v>
+        <v>-0.25691881999999999</v>
       </c>
     </row>
     <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1248">
-        <v>1.347955</v>
+        <v>-0.29918616999999997</v>
       </c>
     </row>
     <row r="1249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1249">
-        <v>0.35940757000000001</v>
+        <v>1.347955</v>
       </c>
     </row>
     <row r="1250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1250">
-        <v>8.8971679999999997E-2</v>
+        <v>0.35940757000000001</v>
       </c>
     </row>
     <row r="1251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1251">
-        <v>0.41555073999999997</v>
+        <v>8.8971679999999997E-2</v>
       </c>
     </row>
     <row r="1252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1252">
-        <v>1.4756392</v>
+        <v>0.41555073999999997</v>
       </c>
     </row>
     <row r="1253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1253">
-        <v>1.3418273000000001</v>
+        <v>1.4756392</v>
       </c>
     </row>
     <row r="1254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1254">
-        <v>0.65989799999999998</v>
+        <v>1.3418273000000001</v>
       </c>
     </row>
     <row r="1255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1255">
-        <v>0.18849015</v>
+        <v>0.65989799999999998</v>
       </c>
     </row>
     <row r="1256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1256">
-        <v>1.2269734999999999</v>
+        <v>0.18849015</v>
       </c>
     </row>
     <row r="1257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1257">
-        <v>0.40354684000000002</v>
+        <v>1.2269734999999999</v>
       </c>
     </row>
     <row r="1258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1258">
-        <v>1.2584348000000001</v>
+        <v>0.40354684000000002</v>
       </c>
     </row>
     <row r="1259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1259">
-        <v>1.2314229000000001</v>
+        <v>1.2584348000000001</v>
       </c>
     </row>
     <row r="1260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1260">
-        <v>0.63929119999999995</v>
+        <v>1.2314229000000001</v>
       </c>
     </row>
     <row r="1261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1261">
-        <v>0.25046827999999999</v>
+        <v>0.63929119999999995</v>
       </c>
     </row>
     <row r="1262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1262">
-        <v>1.464831</v>
+        <v>0.25046827999999999</v>
       </c>
     </row>
     <row r="1263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1263">
-        <v>0.65348410000000001</v>
+        <v>1.464831</v>
       </c>
     </row>
     <row r="1264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1264">
-        <v>1.2869364000000001</v>
+        <v>0.65348410000000001</v>
       </c>
     </row>
     <row r="1265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1265">
-        <v>1.1915072</v>
+        <v>1.2869364000000001</v>
       </c>
     </row>
     <row r="1266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1266">
-        <v>1.1636900999999999</v>
+        <v>1.1915072</v>
       </c>
     </row>
     <row r="1267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1267">
-        <v>0.57746419999999998</v>
+        <v>1.1636900999999999</v>
       </c>
     </row>
     <row r="1268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1268">
-        <v>0.23965776999999999</v>
+        <v>0.57746419999999998</v>
       </c>
     </row>
     <row r="1269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1269">
-        <v>1.6551062000000001</v>
+        <v>0.23965776999999999</v>
       </c>
     </row>
     <row r="1270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1270">
-        <v>-0.17342104</v>
+        <v>1.6551062000000001</v>
       </c>
     </row>
     <row r="1271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1271">
-        <v>1.2443331</v>
+        <v>-0.17342104</v>
       </c>
     </row>
     <row r="1272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1272">
-        <v>1.3056357999999999</v>
+        <v>1.2443331</v>
       </c>
     </row>
     <row r="1273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1273">
-        <v>0.87179934999999997</v>
+        <v>1.3056357999999999</v>
       </c>
     </row>
     <row r="1274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1274">
-        <v>1.2391272</v>
+        <v>0.87179934999999997</v>
       </c>
     </row>
     <row r="1275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1275">
-        <v>0.21198813999999999</v>
+        <v>1.2391272</v>
       </c>
     </row>
     <row r="1276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1276">
-        <v>0.44469314999999998</v>
+        <v>0.21198813999999999</v>
       </c>
     </row>
     <row r="1277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1277">
-        <v>0.57722883999999997</v>
+        <v>0.44469314999999998</v>
       </c>
     </row>
     <row r="1278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1278">
-        <v>1.3340304000000001</v>
+        <v>0.57722883999999997</v>
       </c>
     </row>
     <row r="1279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1279">
-        <v>0.65413206999999995</v>
+        <v>1.3340304000000001</v>
       </c>
     </row>
     <row r="1280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1280">
-        <v>1.5317135</v>
+        <v>0.65413206999999995</v>
       </c>
     </row>
     <row r="1281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1281">
-        <v>1.3220509</v>
+        <v>1.5317135</v>
       </c>
     </row>
     <row r="1282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1282">
-        <v>0.31949820000000001</v>
+        <v>1.3220509</v>
       </c>
     </row>
     <row r="1283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1283">
-        <v>1.1735574</v>
+        <v>0.31949820000000001</v>
       </c>
     </row>
     <row r="1284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1284">
-        <v>0.63010359999999999</v>
+        <v>1.1735574</v>
       </c>
     </row>
     <row r="1285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1285">
-        <v>0.91784290000000002</v>
+        <v>0.63010359999999999</v>
       </c>
     </row>
     <row r="1286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1286">
-        <v>1.2479218000000001</v>
+        <v>0.91784290000000002</v>
       </c>
     </row>
     <row r="1287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1287">
-        <v>0.59701099999999996</v>
+        <v>1.2479218000000001</v>
       </c>
     </row>
     <row r="1288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1288">
-        <v>0.79907950000000005</v>
+        <v>0.59701099999999996</v>
       </c>
     </row>
     <row r="1289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1289">
-        <v>0.62565459999999995</v>
+        <v>0.79907950000000005</v>
       </c>
     </row>
     <row r="1290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1290">
-        <v>7.8213270000000001E-2</v>
+        <v>0.62565459999999995</v>
       </c>
     </row>
     <row r="1291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1291">
-        <v>-0.12009614</v>
+        <v>7.8213270000000001E-2</v>
       </c>
     </row>
     <row r="1292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1292">
-        <v>1.2710809999999999</v>
+        <v>-0.12009614</v>
       </c>
     </row>
     <row r="1293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1293">
-        <v>0.11796024400000001</v>
+        <v>1.2710809999999999</v>
       </c>
     </row>
     <row r="1294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1294">
-        <v>1.1836088</v>
+        <v>0.11796024400000001</v>
       </c>
     </row>
     <row r="1295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1295">
-        <v>-0.107249856</v>
+        <v>1.1836088</v>
       </c>
     </row>
     <row r="1296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1296">
-        <v>1.36083</v>
+        <v>-0.107249856</v>
       </c>
     </row>
     <row r="1297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1297">
-        <v>1.3661574999999999</v>
+        <v>1.36083</v>
       </c>
     </row>
     <row r="1298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1298">
-        <v>1.0985057</v>
+        <v>1.3661574999999999</v>
       </c>
     </row>
     <row r="1299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1299">
-        <v>0.30309760000000002</v>
+        <v>1.0985057</v>
       </c>
     </row>
     <row r="1300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1300">
-        <v>1.1836173999999999</v>
+        <v>0.30309760000000002</v>
       </c>
     </row>
     <row r="1301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1301">
-        <v>0.51355410000000001</v>
+        <v>1.1836173999999999</v>
       </c>
     </row>
     <row r="1302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1302">
-        <v>1.3639863999999999</v>
+        <v>0.51355410000000001</v>
       </c>
     </row>
     <row r="1303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1303">
-        <v>1.1144717</v>
+        <v>1.3639863999999999</v>
       </c>
     </row>
     <row r="1304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1304">
-        <v>1.0388580000000001</v>
+        <v>1.1144717</v>
       </c>
     </row>
     <row r="1305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1305">
+        <v>1.0388580000000001</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1306">
         <v>-0.78668610000000005</v>
       </c>
     </row>
